--- a/data/imf_processed/others_monthly.xlsx
+++ b/data/imf_processed/others_monthly.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ADR11"/>
+  <dimension ref="A1:BAN11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -374,3965 +374,6935 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>1960M1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>1960M2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1960M3</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>1960M4</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>1960M5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>1960M6</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>1960M7</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>1960M8</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>1960M9</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>1960M10</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>1960M11</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>1960M12</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>1961M1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>1961M2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>1961M3</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>1961M4</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>1961M5</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>1961M6</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>1961M7</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>1961M8</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>1961M9</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>1961M10</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>1961M11</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>1961M12</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>1962M1</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>1962M2</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>1962M3</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>1962M4</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>1962M5</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>1962M6</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>1962M7</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>1962M8</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>1962M9</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>1962M10</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>1962M11</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>1962M12</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>1963M1</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>1963M2</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>1963M3</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>1963M4</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>1963M5</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>1963M6</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>1963M7</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>1963M8</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>1963M9</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>1963M10</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>1963M11</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>1963M12</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>1964M1</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>1964M2</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>1964M3</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>1964M4</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>1964M5</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>1964M6</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>1964M7</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>1964M8</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>1964M9</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>1964M10</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>1964M11</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>1964M12</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>1965M1</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>1965M2</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>1965M3</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>1965M4</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>1965M5</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>1965M6</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>1965M7</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>1965M8</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>1965M9</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>1965M10</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>1965M11</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>1965M12</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>1966M1</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>1966M2</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>1966M3</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>1966M4</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>1966M5</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>1966M6</t>
+        </is>
+      </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>1966M7</t>
+        </is>
+      </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>1966M8</t>
+        </is>
+      </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>1966M9</t>
+        </is>
+      </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>1966M10</t>
+        </is>
+      </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>1966M11</t>
+        </is>
+      </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>1966M12</t>
+        </is>
+      </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>1967M1</t>
+        </is>
+      </c>
+      <c r="CM1" t="inlineStr">
+        <is>
+          <t>1967M2</t>
+        </is>
+      </c>
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>1967M3</t>
+        </is>
+      </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>1967M4</t>
+        </is>
+      </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>1967M5</t>
+        </is>
+      </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>1967M6</t>
+        </is>
+      </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>1967M7</t>
+        </is>
+      </c>
+      <c r="CS1" t="inlineStr">
+        <is>
+          <t>1967M8</t>
+        </is>
+      </c>
+      <c r="CT1" t="inlineStr">
+        <is>
+          <t>1967M9</t>
+        </is>
+      </c>
+      <c r="CU1" t="inlineStr">
+        <is>
+          <t>1967M10</t>
+        </is>
+      </c>
+      <c r="CV1" t="inlineStr">
+        <is>
+          <t>1967M11</t>
+        </is>
+      </c>
+      <c r="CW1" t="inlineStr">
+        <is>
+          <t>1967M12</t>
+        </is>
+      </c>
+      <c r="CX1" t="inlineStr">
+        <is>
+          <t>1968M1</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>1968M2</t>
+        </is>
+      </c>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>1968M3</t>
+        </is>
+      </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>1968M4</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>1968M5</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>1968M6</t>
+        </is>
+      </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>1968M7</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>1968M8</t>
+        </is>
+      </c>
+      <c r="DF1" t="inlineStr">
+        <is>
+          <t>1968M9</t>
+        </is>
+      </c>
+      <c r="DG1" t="inlineStr">
+        <is>
+          <t>1968M10</t>
+        </is>
+      </c>
+      <c r="DH1" t="inlineStr">
+        <is>
+          <t>1968M11</t>
+        </is>
+      </c>
+      <c r="DI1" t="inlineStr">
+        <is>
+          <t>1968M12</t>
+        </is>
+      </c>
+      <c r="DJ1" t="inlineStr">
+        <is>
+          <t>1969M1</t>
+        </is>
+      </c>
+      <c r="DK1" t="inlineStr">
+        <is>
+          <t>1969M2</t>
+        </is>
+      </c>
+      <c r="DL1" t="inlineStr">
+        <is>
+          <t>1969M3</t>
+        </is>
+      </c>
+      <c r="DM1" t="inlineStr">
+        <is>
+          <t>1969M4</t>
+        </is>
+      </c>
+      <c r="DN1" t="inlineStr">
+        <is>
+          <t>1969M5</t>
+        </is>
+      </c>
+      <c r="DO1" t="inlineStr">
+        <is>
+          <t>1969M6</t>
+        </is>
+      </c>
+      <c r="DP1" t="inlineStr">
+        <is>
+          <t>1969M7</t>
+        </is>
+      </c>
+      <c r="DQ1" t="inlineStr">
+        <is>
+          <t>1969M8</t>
+        </is>
+      </c>
+      <c r="DR1" t="inlineStr">
+        <is>
+          <t>1969M9</t>
+        </is>
+      </c>
+      <c r="DS1" t="inlineStr">
+        <is>
+          <t>1969M10</t>
+        </is>
+      </c>
+      <c r="DT1" t="inlineStr">
+        <is>
+          <t>1969M11</t>
+        </is>
+      </c>
+      <c r="DU1" t="inlineStr">
+        <is>
+          <t>1969M12</t>
+        </is>
+      </c>
+      <c r="DV1" t="inlineStr">
+        <is>
+          <t>1970M1</t>
+        </is>
+      </c>
+      <c r="DW1" t="inlineStr">
+        <is>
+          <t>1970M2</t>
+        </is>
+      </c>
+      <c r="DX1" t="inlineStr">
+        <is>
+          <t>1970M3</t>
+        </is>
+      </c>
+      <c r="DY1" t="inlineStr">
+        <is>
+          <t>1970M4</t>
+        </is>
+      </c>
+      <c r="DZ1" t="inlineStr">
+        <is>
+          <t>1970M5</t>
+        </is>
+      </c>
+      <c r="EA1" t="inlineStr">
+        <is>
+          <t>1970M6</t>
+        </is>
+      </c>
+      <c r="EB1" t="inlineStr">
+        <is>
+          <t>1970M7</t>
+        </is>
+      </c>
+      <c r="EC1" t="inlineStr">
+        <is>
+          <t>1970M8</t>
+        </is>
+      </c>
+      <c r="ED1" t="inlineStr">
+        <is>
+          <t>1970M9</t>
+        </is>
+      </c>
+      <c r="EE1" t="inlineStr">
+        <is>
+          <t>1970M10</t>
+        </is>
+      </c>
+      <c r="EF1" t="inlineStr">
+        <is>
+          <t>1970M11</t>
+        </is>
+      </c>
+      <c r="EG1" t="inlineStr">
+        <is>
+          <t>1970M12</t>
+        </is>
+      </c>
+      <c r="EH1" t="inlineStr">
+        <is>
+          <t>1971M1</t>
+        </is>
+      </c>
+      <c r="EI1" t="inlineStr">
+        <is>
+          <t>1971M2</t>
+        </is>
+      </c>
+      <c r="EJ1" t="inlineStr">
+        <is>
+          <t>1971M3</t>
+        </is>
+      </c>
+      <c r="EK1" t="inlineStr">
+        <is>
+          <t>1971M4</t>
+        </is>
+      </c>
+      <c r="EL1" t="inlineStr">
+        <is>
+          <t>1971M5</t>
+        </is>
+      </c>
+      <c r="EM1" t="inlineStr">
+        <is>
+          <t>1971M6</t>
+        </is>
+      </c>
+      <c r="EN1" t="inlineStr">
+        <is>
+          <t>1971M7</t>
+        </is>
+      </c>
+      <c r="EO1" t="inlineStr">
+        <is>
+          <t>1971M8</t>
+        </is>
+      </c>
+      <c r="EP1" t="inlineStr">
+        <is>
+          <t>1971M9</t>
+        </is>
+      </c>
+      <c r="EQ1" t="inlineStr">
+        <is>
+          <t>1971M10</t>
+        </is>
+      </c>
+      <c r="ER1" t="inlineStr">
+        <is>
+          <t>1971M11</t>
+        </is>
+      </c>
+      <c r="ES1" t="inlineStr">
+        <is>
+          <t>1971M12</t>
+        </is>
+      </c>
+      <c r="ET1" t="inlineStr">
+        <is>
+          <t>1972M1</t>
+        </is>
+      </c>
+      <c r="EU1" t="inlineStr">
+        <is>
+          <t>1972M2</t>
+        </is>
+      </c>
+      <c r="EV1" t="inlineStr">
+        <is>
+          <t>1972M3</t>
+        </is>
+      </c>
+      <c r="EW1" t="inlineStr">
+        <is>
+          <t>1972M4</t>
+        </is>
+      </c>
+      <c r="EX1" t="inlineStr">
+        <is>
+          <t>1972M5</t>
+        </is>
+      </c>
+      <c r="EY1" t="inlineStr">
+        <is>
+          <t>1972M6</t>
+        </is>
+      </c>
+      <c r="EZ1" t="inlineStr">
+        <is>
+          <t>1972M7</t>
+        </is>
+      </c>
+      <c r="FA1" t="inlineStr">
+        <is>
+          <t>1972M8</t>
+        </is>
+      </c>
+      <c r="FB1" t="inlineStr">
+        <is>
+          <t>1972M9</t>
+        </is>
+      </c>
+      <c r="FC1" t="inlineStr">
+        <is>
+          <t>1972M10</t>
+        </is>
+      </c>
+      <c r="FD1" t="inlineStr">
+        <is>
+          <t>1972M11</t>
+        </is>
+      </c>
+      <c r="FE1" t="inlineStr">
+        <is>
+          <t>1972M12</t>
+        </is>
+      </c>
+      <c r="FF1" t="inlineStr">
+        <is>
+          <t>1973M1</t>
+        </is>
+      </c>
+      <c r="FG1" t="inlineStr">
+        <is>
+          <t>1973M2</t>
+        </is>
+      </c>
+      <c r="FH1" t="inlineStr">
+        <is>
+          <t>1973M3</t>
+        </is>
+      </c>
+      <c r="FI1" t="inlineStr">
+        <is>
+          <t>1973M4</t>
+        </is>
+      </c>
+      <c r="FJ1" t="inlineStr">
+        <is>
+          <t>1973M5</t>
+        </is>
+      </c>
+      <c r="FK1" t="inlineStr">
+        <is>
+          <t>1973M6</t>
+        </is>
+      </c>
+      <c r="FL1" t="inlineStr">
+        <is>
+          <t>1973M7</t>
+        </is>
+      </c>
+      <c r="FM1" t="inlineStr">
+        <is>
+          <t>1973M8</t>
+        </is>
+      </c>
+      <c r="FN1" t="inlineStr">
+        <is>
+          <t>1973M9</t>
+        </is>
+      </c>
+      <c r="FO1" t="inlineStr">
+        <is>
+          <t>1973M10</t>
+        </is>
+      </c>
+      <c r="FP1" t="inlineStr">
+        <is>
+          <t>1973M11</t>
+        </is>
+      </c>
+      <c r="FQ1" t="inlineStr">
+        <is>
+          <t>1973M12</t>
+        </is>
+      </c>
+      <c r="FR1" t="inlineStr">
+        <is>
+          <t>1974M1</t>
+        </is>
+      </c>
+      <c r="FS1" t="inlineStr">
+        <is>
+          <t>1974M2</t>
+        </is>
+      </c>
+      <c r="FT1" t="inlineStr">
+        <is>
+          <t>1974M3</t>
+        </is>
+      </c>
+      <c r="FU1" t="inlineStr">
+        <is>
+          <t>1974M4</t>
+        </is>
+      </c>
+      <c r="FV1" t="inlineStr">
+        <is>
+          <t>1974M5</t>
+        </is>
+      </c>
+      <c r="FW1" t="inlineStr">
+        <is>
+          <t>1974M6</t>
+        </is>
+      </c>
+      <c r="FX1" t="inlineStr">
+        <is>
+          <t>1974M7</t>
+        </is>
+      </c>
+      <c r="FY1" t="inlineStr">
+        <is>
+          <t>1974M8</t>
+        </is>
+      </c>
+      <c r="FZ1" t="inlineStr">
+        <is>
+          <t>1974M9</t>
+        </is>
+      </c>
+      <c r="GA1" t="inlineStr">
+        <is>
+          <t>1974M10</t>
+        </is>
+      </c>
+      <c r="GB1" t="inlineStr">
+        <is>
+          <t>1974M11</t>
+        </is>
+      </c>
+      <c r="GC1" t="inlineStr">
+        <is>
+          <t>1974M12</t>
+        </is>
+      </c>
+      <c r="GD1" t="inlineStr">
+        <is>
+          <t>1975M1</t>
+        </is>
+      </c>
+      <c r="GE1" t="inlineStr">
+        <is>
+          <t>1975M2</t>
+        </is>
+      </c>
+      <c r="GF1" t="inlineStr">
+        <is>
+          <t>1975M3</t>
+        </is>
+      </c>
+      <c r="GG1" t="inlineStr">
+        <is>
+          <t>1975M4</t>
+        </is>
+      </c>
+      <c r="GH1" t="inlineStr">
+        <is>
+          <t>1975M5</t>
+        </is>
+      </c>
+      <c r="GI1" t="inlineStr">
+        <is>
+          <t>1975M6</t>
+        </is>
+      </c>
+      <c r="GJ1" t="inlineStr">
+        <is>
+          <t>1975M7</t>
+        </is>
+      </c>
+      <c r="GK1" t="inlineStr">
+        <is>
+          <t>1975M8</t>
+        </is>
+      </c>
+      <c r="GL1" t="inlineStr">
+        <is>
+          <t>1975M9</t>
+        </is>
+      </c>
+      <c r="GM1" t="inlineStr">
+        <is>
+          <t>1975M10</t>
+        </is>
+      </c>
+      <c r="GN1" t="inlineStr">
+        <is>
+          <t>1975M11</t>
+        </is>
+      </c>
+      <c r="GO1" t="inlineStr">
+        <is>
+          <t>1975M12</t>
+        </is>
+      </c>
+      <c r="GP1" t="inlineStr">
+        <is>
+          <t>1976M1</t>
+        </is>
+      </c>
+      <c r="GQ1" t="inlineStr">
+        <is>
+          <t>1976M2</t>
+        </is>
+      </c>
+      <c r="GR1" t="inlineStr">
+        <is>
+          <t>1976M3</t>
+        </is>
+      </c>
+      <c r="GS1" t="inlineStr">
+        <is>
+          <t>1976M4</t>
+        </is>
+      </c>
+      <c r="GT1" t="inlineStr">
+        <is>
+          <t>1976M5</t>
+        </is>
+      </c>
+      <c r="GU1" t="inlineStr">
+        <is>
+          <t>1976M6</t>
+        </is>
+      </c>
+      <c r="GV1" t="inlineStr">
+        <is>
+          <t>1976M7</t>
+        </is>
+      </c>
+      <c r="GW1" t="inlineStr">
+        <is>
+          <t>1976M8</t>
+        </is>
+      </c>
+      <c r="GX1" t="inlineStr">
+        <is>
+          <t>1976M9</t>
+        </is>
+      </c>
+      <c r="GY1" t="inlineStr">
+        <is>
+          <t>1976M10</t>
+        </is>
+      </c>
+      <c r="GZ1" t="inlineStr">
+        <is>
+          <t>1976M11</t>
+        </is>
+      </c>
+      <c r="HA1" t="inlineStr">
+        <is>
+          <t>1976M12</t>
+        </is>
+      </c>
+      <c r="HB1" t="inlineStr">
+        <is>
+          <t>1977M1</t>
+        </is>
+      </c>
+      <c r="HC1" t="inlineStr">
+        <is>
+          <t>1977M2</t>
+        </is>
+      </c>
+      <c r="HD1" t="inlineStr">
+        <is>
+          <t>1977M3</t>
+        </is>
+      </c>
+      <c r="HE1" t="inlineStr">
+        <is>
+          <t>1977M4</t>
+        </is>
+      </c>
+      <c r="HF1" t="inlineStr">
+        <is>
+          <t>1977M5</t>
+        </is>
+      </c>
+      <c r="HG1" t="inlineStr">
+        <is>
+          <t>1977M6</t>
+        </is>
+      </c>
+      <c r="HH1" t="inlineStr">
+        <is>
+          <t>1977M7</t>
+        </is>
+      </c>
+      <c r="HI1" t="inlineStr">
+        <is>
+          <t>1977M8</t>
+        </is>
+      </c>
+      <c r="HJ1" t="inlineStr">
+        <is>
+          <t>1977M9</t>
+        </is>
+      </c>
+      <c r="HK1" t="inlineStr">
+        <is>
+          <t>1977M10</t>
+        </is>
+      </c>
+      <c r="HL1" t="inlineStr">
+        <is>
+          <t>1977M11</t>
+        </is>
+      </c>
+      <c r="HM1" t="inlineStr">
+        <is>
+          <t>1977M12</t>
+        </is>
+      </c>
+      <c r="HN1" t="inlineStr">
+        <is>
+          <t>1978M1</t>
+        </is>
+      </c>
+      <c r="HO1" t="inlineStr">
+        <is>
+          <t>1978M2</t>
+        </is>
+      </c>
+      <c r="HP1" t="inlineStr">
+        <is>
+          <t>1978M3</t>
+        </is>
+      </c>
+      <c r="HQ1" t="inlineStr">
+        <is>
+          <t>1978M4</t>
+        </is>
+      </c>
+      <c r="HR1" t="inlineStr">
+        <is>
+          <t>1978M5</t>
+        </is>
+      </c>
+      <c r="HS1" t="inlineStr">
+        <is>
+          <t>1978M6</t>
+        </is>
+      </c>
+      <c r="HT1" t="inlineStr">
+        <is>
+          <t>1978M7</t>
+        </is>
+      </c>
+      <c r="HU1" t="inlineStr">
+        <is>
+          <t>1978M8</t>
+        </is>
+      </c>
+      <c r="HV1" t="inlineStr">
+        <is>
+          <t>1978M9</t>
+        </is>
+      </c>
+      <c r="HW1" t="inlineStr">
+        <is>
+          <t>1978M10</t>
+        </is>
+      </c>
+      <c r="HX1" t="inlineStr">
+        <is>
+          <t>1978M11</t>
+        </is>
+      </c>
+      <c r="HY1" t="inlineStr">
+        <is>
+          <t>1978M12</t>
+        </is>
+      </c>
+      <c r="HZ1" t="inlineStr">
+        <is>
+          <t>1979M1</t>
+        </is>
+      </c>
+      <c r="IA1" t="inlineStr">
+        <is>
+          <t>1979M2</t>
+        </is>
+      </c>
+      <c r="IB1" t="inlineStr">
+        <is>
+          <t>1979M3</t>
+        </is>
+      </c>
+      <c r="IC1" t="inlineStr">
+        <is>
+          <t>1979M4</t>
+        </is>
+      </c>
+      <c r="ID1" t="inlineStr">
+        <is>
+          <t>1979M5</t>
+        </is>
+      </c>
+      <c r="IE1" t="inlineStr">
+        <is>
+          <t>1979M6</t>
+        </is>
+      </c>
+      <c r="IF1" t="inlineStr">
+        <is>
+          <t>1979M7</t>
+        </is>
+      </c>
+      <c r="IG1" t="inlineStr">
+        <is>
+          <t>1979M8</t>
+        </is>
+      </c>
+      <c r="IH1" t="inlineStr">
+        <is>
+          <t>1979M9</t>
+        </is>
+      </c>
+      <c r="II1" t="inlineStr">
+        <is>
+          <t>1979M10</t>
+        </is>
+      </c>
+      <c r="IJ1" t="inlineStr">
+        <is>
+          <t>1979M11</t>
+        </is>
+      </c>
+      <c r="IK1" t="inlineStr">
+        <is>
+          <t>1979M12</t>
+        </is>
+      </c>
+      <c r="IL1" t="inlineStr">
+        <is>
+          <t>1980M1</t>
+        </is>
+      </c>
+      <c r="IM1" t="inlineStr">
+        <is>
+          <t>1980M2</t>
+        </is>
+      </c>
+      <c r="IN1" t="inlineStr">
+        <is>
+          <t>1980M3</t>
+        </is>
+      </c>
+      <c r="IO1" t="inlineStr">
+        <is>
+          <t>1980M4</t>
+        </is>
+      </c>
+      <c r="IP1" t="inlineStr">
+        <is>
+          <t>1980M5</t>
+        </is>
+      </c>
+      <c r="IQ1" t="inlineStr">
+        <is>
+          <t>1980M6</t>
+        </is>
+      </c>
+      <c r="IR1" t="inlineStr">
+        <is>
+          <t>1980M7</t>
+        </is>
+      </c>
+      <c r="IS1" t="inlineStr">
+        <is>
+          <t>1980M8</t>
+        </is>
+      </c>
+      <c r="IT1" t="inlineStr">
+        <is>
+          <t>1980M9</t>
+        </is>
+      </c>
+      <c r="IU1" t="inlineStr">
+        <is>
+          <t>1980M10</t>
+        </is>
+      </c>
+      <c r="IV1" t="inlineStr">
+        <is>
+          <t>1980M11</t>
+        </is>
+      </c>
+      <c r="IW1" t="inlineStr">
+        <is>
+          <t>1980M12</t>
+        </is>
+      </c>
+      <c r="IX1" t="inlineStr">
+        <is>
+          <t>1981M1</t>
+        </is>
+      </c>
+      <c r="IY1" t="inlineStr">
+        <is>
+          <t>1981M2</t>
+        </is>
+      </c>
+      <c r="IZ1" t="inlineStr">
+        <is>
+          <t>1981M3</t>
+        </is>
+      </c>
+      <c r="JA1" t="inlineStr">
+        <is>
+          <t>1981M4</t>
+        </is>
+      </c>
+      <c r="JB1" t="inlineStr">
+        <is>
+          <t>1981M5</t>
+        </is>
+      </c>
+      <c r="JC1" t="inlineStr">
+        <is>
+          <t>1981M6</t>
+        </is>
+      </c>
+      <c r="JD1" t="inlineStr">
+        <is>
+          <t>1981M7</t>
+        </is>
+      </c>
+      <c r="JE1" t="inlineStr">
+        <is>
+          <t>1981M8</t>
+        </is>
+      </c>
+      <c r="JF1" t="inlineStr">
+        <is>
+          <t>1981M9</t>
+        </is>
+      </c>
+      <c r="JG1" t="inlineStr">
+        <is>
+          <t>1981M10</t>
+        </is>
+      </c>
+      <c r="JH1" t="inlineStr">
+        <is>
+          <t>1981M11</t>
+        </is>
+      </c>
+      <c r="JI1" t="inlineStr">
+        <is>
+          <t>1981M12</t>
+        </is>
+      </c>
+      <c r="JJ1" t="inlineStr">
+        <is>
+          <t>1982M1</t>
+        </is>
+      </c>
+      <c r="JK1" t="inlineStr">
+        <is>
+          <t>1982M2</t>
+        </is>
+      </c>
+      <c r="JL1" t="inlineStr">
+        <is>
+          <t>1982M3</t>
+        </is>
+      </c>
+      <c r="JM1" t="inlineStr">
+        <is>
+          <t>1982M4</t>
+        </is>
+      </c>
+      <c r="JN1" t="inlineStr">
+        <is>
+          <t>1982M5</t>
+        </is>
+      </c>
+      <c r="JO1" t="inlineStr">
+        <is>
+          <t>1982M6</t>
+        </is>
+      </c>
+      <c r="JP1" t="inlineStr">
+        <is>
+          <t>1982M7</t>
+        </is>
+      </c>
+      <c r="JQ1" t="inlineStr">
+        <is>
+          <t>1982M8</t>
+        </is>
+      </c>
+      <c r="JR1" t="inlineStr">
+        <is>
+          <t>1982M9</t>
+        </is>
+      </c>
+      <c r="JS1" t="inlineStr">
+        <is>
+          <t>1982M10</t>
+        </is>
+      </c>
+      <c r="JT1" t="inlineStr">
+        <is>
+          <t>1982M11</t>
+        </is>
+      </c>
+      <c r="JU1" t="inlineStr">
+        <is>
+          <t>1982M12</t>
+        </is>
+      </c>
+      <c r="JV1" t="inlineStr">
+        <is>
+          <t>1983M1</t>
+        </is>
+      </c>
+      <c r="JW1" t="inlineStr">
+        <is>
+          <t>1983M2</t>
+        </is>
+      </c>
+      <c r="JX1" t="inlineStr">
+        <is>
+          <t>1983M3</t>
+        </is>
+      </c>
+      <c r="JY1" t="inlineStr">
+        <is>
+          <t>1983M4</t>
+        </is>
+      </c>
+      <c r="JZ1" t="inlineStr">
+        <is>
+          <t>1983M5</t>
+        </is>
+      </c>
+      <c r="KA1" t="inlineStr">
+        <is>
+          <t>1983M6</t>
+        </is>
+      </c>
+      <c r="KB1" t="inlineStr">
+        <is>
+          <t>1983M7</t>
+        </is>
+      </c>
+      <c r="KC1" t="inlineStr">
+        <is>
+          <t>1983M8</t>
+        </is>
+      </c>
+      <c r="KD1" t="inlineStr">
+        <is>
+          <t>1983M9</t>
+        </is>
+      </c>
+      <c r="KE1" t="inlineStr">
+        <is>
+          <t>1983M10</t>
+        </is>
+      </c>
+      <c r="KF1" t="inlineStr">
+        <is>
+          <t>1983M11</t>
+        </is>
+      </c>
+      <c r="KG1" t="inlineStr">
+        <is>
+          <t>1983M12</t>
+        </is>
+      </c>
+      <c r="KH1" t="inlineStr">
+        <is>
+          <t>1984M1</t>
+        </is>
+      </c>
+      <c r="KI1" t="inlineStr">
+        <is>
+          <t>1984M2</t>
+        </is>
+      </c>
+      <c r="KJ1" t="inlineStr">
+        <is>
+          <t>1984M3</t>
+        </is>
+      </c>
+      <c r="KK1" t="inlineStr">
+        <is>
+          <t>1984M4</t>
+        </is>
+      </c>
+      <c r="KL1" t="inlineStr">
+        <is>
+          <t>1984M5</t>
+        </is>
+      </c>
+      <c r="KM1" t="inlineStr">
+        <is>
+          <t>1984M6</t>
+        </is>
+      </c>
+      <c r="KN1" t="inlineStr">
+        <is>
+          <t>1984M7</t>
+        </is>
+      </c>
+      <c r="KO1" t="inlineStr">
+        <is>
+          <t>1984M8</t>
+        </is>
+      </c>
+      <c r="KP1" t="inlineStr">
+        <is>
+          <t>1984M9</t>
+        </is>
+      </c>
+      <c r="KQ1" t="inlineStr">
+        <is>
+          <t>1984M10</t>
+        </is>
+      </c>
+      <c r="KR1" t="inlineStr">
+        <is>
+          <t>1984M11</t>
+        </is>
+      </c>
+      <c r="KS1" t="inlineStr">
+        <is>
+          <t>1984M12</t>
+        </is>
+      </c>
+      <c r="KT1" t="inlineStr">
+        <is>
+          <t>1985M1</t>
+        </is>
+      </c>
+      <c r="KU1" t="inlineStr">
+        <is>
+          <t>1985M2</t>
+        </is>
+      </c>
+      <c r="KV1" t="inlineStr">
+        <is>
+          <t>1985M3</t>
+        </is>
+      </c>
+      <c r="KW1" t="inlineStr">
+        <is>
+          <t>1985M4</t>
+        </is>
+      </c>
+      <c r="KX1" t="inlineStr">
+        <is>
+          <t>1985M5</t>
+        </is>
+      </c>
+      <c r="KY1" t="inlineStr">
+        <is>
+          <t>1985M6</t>
+        </is>
+      </c>
+      <c r="KZ1" t="inlineStr">
+        <is>
+          <t>1985M7</t>
+        </is>
+      </c>
+      <c r="LA1" t="inlineStr">
+        <is>
+          <t>1985M8</t>
+        </is>
+      </c>
+      <c r="LB1" t="inlineStr">
+        <is>
+          <t>1985M9</t>
+        </is>
+      </c>
+      <c r="LC1" t="inlineStr">
+        <is>
+          <t>1985M10</t>
+        </is>
+      </c>
+      <c r="LD1" t="inlineStr">
+        <is>
+          <t>1985M11</t>
+        </is>
+      </c>
+      <c r="LE1" t="inlineStr">
+        <is>
+          <t>1985M12</t>
+        </is>
+      </c>
+      <c r="LF1" t="inlineStr">
+        <is>
+          <t>1986M1</t>
+        </is>
+      </c>
+      <c r="LG1" t="inlineStr">
+        <is>
+          <t>1986M2</t>
+        </is>
+      </c>
+      <c r="LH1" t="inlineStr">
+        <is>
+          <t>1986M3</t>
+        </is>
+      </c>
+      <c r="LI1" t="inlineStr">
+        <is>
+          <t>1986M4</t>
+        </is>
+      </c>
+      <c r="LJ1" t="inlineStr">
+        <is>
+          <t>1986M5</t>
+        </is>
+      </c>
+      <c r="LK1" t="inlineStr">
+        <is>
+          <t>1986M6</t>
+        </is>
+      </c>
+      <c r="LL1" t="inlineStr">
+        <is>
+          <t>1986M7</t>
+        </is>
+      </c>
+      <c r="LM1" t="inlineStr">
+        <is>
+          <t>1986M8</t>
+        </is>
+      </c>
+      <c r="LN1" t="inlineStr">
+        <is>
+          <t>1986M9</t>
+        </is>
+      </c>
+      <c r="LO1" t="inlineStr">
+        <is>
+          <t>1986M10</t>
+        </is>
+      </c>
+      <c r="LP1" t="inlineStr">
+        <is>
+          <t>1986M11</t>
+        </is>
+      </c>
+      <c r="LQ1" t="inlineStr">
+        <is>
+          <t>1986M12</t>
+        </is>
+      </c>
+      <c r="LR1" t="inlineStr">
+        <is>
+          <t>1987M1</t>
+        </is>
+      </c>
+      <c r="LS1" t="inlineStr">
+        <is>
+          <t>1987M2</t>
+        </is>
+      </c>
+      <c r="LT1" t="inlineStr">
+        <is>
+          <t>1987M3</t>
+        </is>
+      </c>
+      <c r="LU1" t="inlineStr">
+        <is>
+          <t>1987M4</t>
+        </is>
+      </c>
+      <c r="LV1" t="inlineStr">
+        <is>
+          <t>1987M5</t>
+        </is>
+      </c>
+      <c r="LW1" t="inlineStr">
+        <is>
+          <t>1987M6</t>
+        </is>
+      </c>
+      <c r="LX1" t="inlineStr">
+        <is>
+          <t>1987M7</t>
+        </is>
+      </c>
+      <c r="LY1" t="inlineStr">
+        <is>
+          <t>1987M8</t>
+        </is>
+      </c>
+      <c r="LZ1" t="inlineStr">
+        <is>
+          <t>1987M9</t>
+        </is>
+      </c>
+      <c r="MA1" t="inlineStr">
+        <is>
+          <t>1987M10</t>
+        </is>
+      </c>
+      <c r="MB1" t="inlineStr">
+        <is>
+          <t>1987M11</t>
+        </is>
+      </c>
+      <c r="MC1" t="inlineStr">
+        <is>
+          <t>1987M12</t>
+        </is>
+      </c>
+      <c r="MD1" t="inlineStr">
+        <is>
+          <t>1988M1</t>
+        </is>
+      </c>
+      <c r="ME1" t="inlineStr">
+        <is>
+          <t>1988M2</t>
+        </is>
+      </c>
+      <c r="MF1" t="inlineStr">
+        <is>
+          <t>1988M3</t>
+        </is>
+      </c>
+      <c r="MG1" t="inlineStr">
+        <is>
+          <t>1988M4</t>
+        </is>
+      </c>
+      <c r="MH1" t="inlineStr">
+        <is>
+          <t>1988M5</t>
+        </is>
+      </c>
+      <c r="MI1" t="inlineStr">
+        <is>
+          <t>1988M6</t>
+        </is>
+      </c>
+      <c r="MJ1" t="inlineStr">
+        <is>
+          <t>1988M7</t>
+        </is>
+      </c>
+      <c r="MK1" t="inlineStr">
+        <is>
+          <t>1988M8</t>
+        </is>
+      </c>
+      <c r="ML1" t="inlineStr">
+        <is>
+          <t>1988M9</t>
+        </is>
+      </c>
+      <c r="MM1" t="inlineStr">
+        <is>
+          <t>1988M10</t>
+        </is>
+      </c>
+      <c r="MN1" t="inlineStr">
+        <is>
+          <t>1988M11</t>
+        </is>
+      </c>
+      <c r="MO1" t="inlineStr">
+        <is>
+          <t>1988M12</t>
+        </is>
+      </c>
+      <c r="MP1" t="inlineStr">
+        <is>
+          <t>1989M1</t>
+        </is>
+      </c>
+      <c r="MQ1" t="inlineStr">
+        <is>
+          <t>1989M2</t>
+        </is>
+      </c>
+      <c r="MR1" t="inlineStr">
+        <is>
+          <t>1989M3</t>
+        </is>
+      </c>
+      <c r="MS1" t="inlineStr">
+        <is>
+          <t>1989M4</t>
+        </is>
+      </c>
+      <c r="MT1" t="inlineStr">
+        <is>
+          <t>1989M5</t>
+        </is>
+      </c>
+      <c r="MU1" t="inlineStr">
+        <is>
+          <t>1989M6</t>
+        </is>
+      </c>
+      <c r="MV1" t="inlineStr">
+        <is>
+          <t>1989M7</t>
+        </is>
+      </c>
+      <c r="MW1" t="inlineStr">
+        <is>
+          <t>1989M8</t>
+        </is>
+      </c>
+      <c r="MX1" t="inlineStr">
+        <is>
+          <t>1989M9</t>
+        </is>
+      </c>
+      <c r="MY1" t="inlineStr">
+        <is>
+          <t>1989M10</t>
+        </is>
+      </c>
+      <c r="MZ1" t="inlineStr">
+        <is>
+          <t>1989M11</t>
+        </is>
+      </c>
+      <c r="NA1" t="inlineStr">
+        <is>
+          <t>1989M12</t>
+        </is>
+      </c>
+      <c r="NB1" t="inlineStr">
+        <is>
+          <t>1990M1</t>
+        </is>
+      </c>
+      <c r="NC1" t="inlineStr">
+        <is>
+          <t>1990M2</t>
+        </is>
+      </c>
+      <c r="ND1" t="inlineStr">
+        <is>
+          <t>1990M3</t>
+        </is>
+      </c>
+      <c r="NE1" t="inlineStr">
+        <is>
+          <t>1990M4</t>
+        </is>
+      </c>
+      <c r="NF1" t="inlineStr">
+        <is>
+          <t>1990M5</t>
+        </is>
+      </c>
+      <c r="NG1" t="inlineStr">
+        <is>
+          <t>1990M6</t>
+        </is>
+      </c>
+      <c r="NH1" t="inlineStr">
+        <is>
+          <t>1990M7</t>
+        </is>
+      </c>
+      <c r="NI1" t="inlineStr">
+        <is>
+          <t>1990M8</t>
+        </is>
+      </c>
+      <c r="NJ1" t="inlineStr">
+        <is>
+          <t>1990M9</t>
+        </is>
+      </c>
+      <c r="NK1" t="inlineStr">
+        <is>
+          <t>1990M10</t>
+        </is>
+      </c>
+      <c r="NL1" t="inlineStr">
+        <is>
+          <t>1990M11</t>
+        </is>
+      </c>
+      <c r="NM1" t="inlineStr">
+        <is>
+          <t>1990M12</t>
+        </is>
+      </c>
+      <c r="NN1" t="inlineStr">
+        <is>
+          <t>1991M1</t>
+        </is>
+      </c>
+      <c r="NO1" t="inlineStr">
+        <is>
+          <t>1991M2</t>
+        </is>
+      </c>
+      <c r="NP1" t="inlineStr">
+        <is>
+          <t>1991M3</t>
+        </is>
+      </c>
+      <c r="NQ1" t="inlineStr">
+        <is>
+          <t>1991M4</t>
+        </is>
+      </c>
+      <c r="NR1" t="inlineStr">
+        <is>
+          <t>1991M5</t>
+        </is>
+      </c>
+      <c r="NS1" t="inlineStr">
+        <is>
+          <t>1991M6</t>
+        </is>
+      </c>
+      <c r="NT1" t="inlineStr">
+        <is>
+          <t>1991M7</t>
+        </is>
+      </c>
+      <c r="NU1" t="inlineStr">
+        <is>
+          <t>1991M8</t>
+        </is>
+      </c>
+      <c r="NV1" t="inlineStr">
+        <is>
+          <t>1991M9</t>
+        </is>
+      </c>
+      <c r="NW1" t="inlineStr">
+        <is>
+          <t>1991M10</t>
+        </is>
+      </c>
+      <c r="NX1" t="inlineStr">
+        <is>
+          <t>1991M11</t>
+        </is>
+      </c>
+      <c r="NY1" t="inlineStr">
+        <is>
+          <t>1991M12</t>
+        </is>
+      </c>
+      <c r="NZ1" t="inlineStr">
+        <is>
+          <t>1992M1</t>
+        </is>
+      </c>
+      <c r="OA1" t="inlineStr">
+        <is>
+          <t>1992M2</t>
+        </is>
+      </c>
+      <c r="OB1" t="inlineStr">
+        <is>
+          <t>1992M3</t>
+        </is>
+      </c>
+      <c r="OC1" t="inlineStr">
+        <is>
+          <t>1992M4</t>
+        </is>
+      </c>
+      <c r="OD1" t="inlineStr">
+        <is>
+          <t>1992M5</t>
+        </is>
+      </c>
+      <c r="OE1" t="inlineStr">
+        <is>
+          <t>1992M6</t>
+        </is>
+      </c>
+      <c r="OF1" t="inlineStr">
+        <is>
+          <t>1992M7</t>
+        </is>
+      </c>
+      <c r="OG1" t="inlineStr">
+        <is>
+          <t>1992M8</t>
+        </is>
+      </c>
+      <c r="OH1" t="inlineStr">
+        <is>
+          <t>1992M9</t>
+        </is>
+      </c>
+      <c r="OI1" t="inlineStr">
+        <is>
+          <t>1992M10</t>
+        </is>
+      </c>
+      <c r="OJ1" t="inlineStr">
+        <is>
+          <t>1992M11</t>
+        </is>
+      </c>
+      <c r="OK1" t="inlineStr">
+        <is>
+          <t>1992M12</t>
+        </is>
+      </c>
+      <c r="OL1" t="inlineStr">
+        <is>
+          <t>1993M1</t>
+        </is>
+      </c>
+      <c r="OM1" t="inlineStr">
+        <is>
+          <t>1993M2</t>
+        </is>
+      </c>
+      <c r="ON1" t="inlineStr">
+        <is>
+          <t>1993M3</t>
+        </is>
+      </c>
+      <c r="OO1" t="inlineStr">
+        <is>
+          <t>1993M4</t>
+        </is>
+      </c>
+      <c r="OP1" t="inlineStr">
+        <is>
+          <t>1993M5</t>
+        </is>
+      </c>
+      <c r="OQ1" t="inlineStr">
+        <is>
+          <t>1993M6</t>
+        </is>
+      </c>
+      <c r="OR1" t="inlineStr">
+        <is>
+          <t>1993M7</t>
+        </is>
+      </c>
+      <c r="OS1" t="inlineStr">
+        <is>
+          <t>1993M8</t>
+        </is>
+      </c>
+      <c r="OT1" t="inlineStr">
+        <is>
+          <t>1993M9</t>
+        </is>
+      </c>
+      <c r="OU1" t="inlineStr">
+        <is>
+          <t>1993M10</t>
+        </is>
+      </c>
+      <c r="OV1" t="inlineStr">
+        <is>
+          <t>1993M11</t>
+        </is>
+      </c>
+      <c r="OW1" t="inlineStr">
+        <is>
+          <t>1993M12</t>
+        </is>
+      </c>
+      <c r="OX1" t="inlineStr">
+        <is>
+          <t>1994M1</t>
+        </is>
+      </c>
+      <c r="OY1" t="inlineStr">
+        <is>
+          <t>1994M2</t>
+        </is>
+      </c>
+      <c r="OZ1" t="inlineStr">
+        <is>
+          <t>1994M3</t>
+        </is>
+      </c>
+      <c r="PA1" t="inlineStr">
+        <is>
+          <t>1994M4</t>
+        </is>
+      </c>
+      <c r="PB1" t="inlineStr">
+        <is>
+          <t>1994M5</t>
+        </is>
+      </c>
+      <c r="PC1" t="inlineStr">
+        <is>
+          <t>1994M6</t>
+        </is>
+      </c>
+      <c r="PD1" t="inlineStr">
+        <is>
+          <t>1994M7</t>
+        </is>
+      </c>
+      <c r="PE1" t="inlineStr">
+        <is>
+          <t>1994M8</t>
+        </is>
+      </c>
+      <c r="PF1" t="inlineStr">
+        <is>
+          <t>1994M9</t>
+        </is>
+      </c>
+      <c r="PG1" t="inlineStr">
+        <is>
+          <t>1994M10</t>
+        </is>
+      </c>
+      <c r="PH1" t="inlineStr">
+        <is>
+          <t>1994M11</t>
+        </is>
+      </c>
+      <c r="PI1" t="inlineStr">
+        <is>
+          <t>1994M12</t>
+        </is>
+      </c>
+      <c r="PJ1" t="inlineStr">
+        <is>
+          <t>1995M1</t>
+        </is>
+      </c>
+      <c r="PK1" t="inlineStr">
+        <is>
+          <t>1995M2</t>
+        </is>
+      </c>
+      <c r="PL1" t="inlineStr">
+        <is>
+          <t>1995M3</t>
+        </is>
+      </c>
+      <c r="PM1" t="inlineStr">
+        <is>
+          <t>1995M4</t>
+        </is>
+      </c>
+      <c r="PN1" t="inlineStr">
+        <is>
+          <t>1995M5</t>
+        </is>
+      </c>
+      <c r="PO1" t="inlineStr">
+        <is>
+          <t>1995M6</t>
+        </is>
+      </c>
+      <c r="PP1" t="inlineStr">
+        <is>
+          <t>1995M7</t>
+        </is>
+      </c>
+      <c r="PQ1" t="inlineStr">
+        <is>
+          <t>1995M8</t>
+        </is>
+      </c>
+      <c r="PR1" t="inlineStr">
+        <is>
+          <t>1995M9</t>
+        </is>
+      </c>
+      <c r="PS1" t="inlineStr">
+        <is>
+          <t>1995M10</t>
+        </is>
+      </c>
+      <c r="PT1" t="inlineStr">
+        <is>
+          <t>1995M11</t>
+        </is>
+      </c>
+      <c r="PU1" t="inlineStr">
+        <is>
+          <t>1995M12</t>
+        </is>
+      </c>
+      <c r="PV1" t="inlineStr">
+        <is>
+          <t>1996M1</t>
+        </is>
+      </c>
+      <c r="PW1" t="inlineStr">
+        <is>
+          <t>1996M2</t>
+        </is>
+      </c>
+      <c r="PX1" t="inlineStr">
+        <is>
+          <t>1996M3</t>
+        </is>
+      </c>
+      <c r="PY1" t="inlineStr">
+        <is>
+          <t>1996M4</t>
+        </is>
+      </c>
+      <c r="PZ1" t="inlineStr">
+        <is>
+          <t>1996M5</t>
+        </is>
+      </c>
+      <c r="QA1" t="inlineStr">
+        <is>
+          <t>1996M6</t>
+        </is>
+      </c>
+      <c r="QB1" t="inlineStr">
+        <is>
+          <t>1996M7</t>
+        </is>
+      </c>
+      <c r="QC1" t="inlineStr">
+        <is>
+          <t>1996M8</t>
+        </is>
+      </c>
+      <c r="QD1" t="inlineStr">
+        <is>
+          <t>1996M9</t>
+        </is>
+      </c>
+      <c r="QE1" t="inlineStr">
+        <is>
+          <t>1996M10</t>
+        </is>
+      </c>
+      <c r="QF1" t="inlineStr">
+        <is>
+          <t>1996M11</t>
+        </is>
+      </c>
+      <c r="QG1" t="inlineStr">
+        <is>
+          <t>1996M12</t>
+        </is>
+      </c>
+      <c r="QH1" t="inlineStr">
+        <is>
+          <t>1997M1</t>
+        </is>
+      </c>
+      <c r="QI1" t="inlineStr">
+        <is>
+          <t>1997M2</t>
+        </is>
+      </c>
+      <c r="QJ1" t="inlineStr">
+        <is>
+          <t>1997M3</t>
+        </is>
+      </c>
+      <c r="QK1" t="inlineStr">
+        <is>
+          <t>1997M4</t>
+        </is>
+      </c>
+      <c r="QL1" t="inlineStr">
+        <is>
+          <t>1997M5</t>
+        </is>
+      </c>
+      <c r="QM1" t="inlineStr">
+        <is>
+          <t>1997M6</t>
+        </is>
+      </c>
+      <c r="QN1" t="inlineStr">
+        <is>
+          <t>1997M7</t>
+        </is>
+      </c>
+      <c r="QO1" t="inlineStr">
+        <is>
+          <t>1997M8</t>
+        </is>
+      </c>
+      <c r="QP1" t="inlineStr">
+        <is>
+          <t>1997M9</t>
+        </is>
+      </c>
+      <c r="QQ1" t="inlineStr">
+        <is>
+          <t>1997M10</t>
+        </is>
+      </c>
+      <c r="QR1" t="inlineStr">
+        <is>
+          <t>1997M11</t>
+        </is>
+      </c>
+      <c r="QS1" t="inlineStr">
+        <is>
+          <t>1997M12</t>
+        </is>
+      </c>
+      <c r="QT1" t="inlineStr">
+        <is>
+          <t>1998M1</t>
+        </is>
+      </c>
+      <c r="QU1" t="inlineStr">
+        <is>
+          <t>1998M2</t>
+        </is>
+      </c>
+      <c r="QV1" t="inlineStr">
+        <is>
+          <t>1998M3</t>
+        </is>
+      </c>
+      <c r="QW1" t="inlineStr">
+        <is>
+          <t>1998M4</t>
+        </is>
+      </c>
+      <c r="QX1" t="inlineStr">
+        <is>
+          <t>1998M5</t>
+        </is>
+      </c>
+      <c r="QY1" t="inlineStr">
+        <is>
+          <t>1998M6</t>
+        </is>
+      </c>
+      <c r="QZ1" t="inlineStr">
+        <is>
+          <t>1998M7</t>
+        </is>
+      </c>
+      <c r="RA1" t="inlineStr">
+        <is>
+          <t>1998M8</t>
+        </is>
+      </c>
+      <c r="RB1" t="inlineStr">
+        <is>
+          <t>1998M9</t>
+        </is>
+      </c>
+      <c r="RC1" t="inlineStr">
+        <is>
+          <t>1998M10</t>
+        </is>
+      </c>
+      <c r="RD1" t="inlineStr">
+        <is>
+          <t>1998M11</t>
+        </is>
+      </c>
+      <c r="RE1" t="inlineStr">
+        <is>
+          <t>1998M12</t>
+        </is>
+      </c>
+      <c r="RF1" t="inlineStr">
+        <is>
+          <t>1999M1</t>
+        </is>
+      </c>
+      <c r="RG1" t="inlineStr">
+        <is>
+          <t>1999M2</t>
+        </is>
+      </c>
+      <c r="RH1" t="inlineStr">
+        <is>
+          <t>1999M3</t>
+        </is>
+      </c>
+      <c r="RI1" t="inlineStr">
+        <is>
+          <t>1999M4</t>
+        </is>
+      </c>
+      <c r="RJ1" t="inlineStr">
+        <is>
+          <t>1999M5</t>
+        </is>
+      </c>
+      <c r="RK1" t="inlineStr">
+        <is>
+          <t>1999M6</t>
+        </is>
+      </c>
+      <c r="RL1" t="inlineStr">
+        <is>
+          <t>1999M7</t>
+        </is>
+      </c>
+      <c r="RM1" t="inlineStr">
+        <is>
+          <t>1999M8</t>
+        </is>
+      </c>
+      <c r="RN1" t="inlineStr">
+        <is>
+          <t>1999M9</t>
+        </is>
+      </c>
+      <c r="RO1" t="inlineStr">
+        <is>
+          <t>1999M10</t>
+        </is>
+      </c>
+      <c r="RP1" t="inlineStr">
+        <is>
+          <t>1999M11</t>
+        </is>
+      </c>
+      <c r="RQ1" t="inlineStr">
+        <is>
+          <t>1999M12</t>
+        </is>
+      </c>
+      <c r="RR1" t="inlineStr">
+        <is>
+          <t>2000M1</t>
+        </is>
+      </c>
+      <c r="RS1" t="inlineStr">
+        <is>
+          <t>2000M2</t>
+        </is>
+      </c>
+      <c r="RT1" t="inlineStr">
+        <is>
+          <t>2000M3</t>
+        </is>
+      </c>
+      <c r="RU1" t="inlineStr">
+        <is>
+          <t>2000M4</t>
+        </is>
+      </c>
+      <c r="RV1" t="inlineStr">
+        <is>
+          <t>2000M5</t>
+        </is>
+      </c>
+      <c r="RW1" t="inlineStr">
+        <is>
+          <t>2000M6</t>
+        </is>
+      </c>
+      <c r="RX1" t="inlineStr">
+        <is>
+          <t>2000M7</t>
+        </is>
+      </c>
+      <c r="RY1" t="inlineStr">
+        <is>
+          <t>2000M8</t>
+        </is>
+      </c>
+      <c r="RZ1" t="inlineStr">
+        <is>
+          <t>2000M9</t>
+        </is>
+      </c>
+      <c r="SA1" t="inlineStr">
+        <is>
+          <t>2000M10</t>
+        </is>
+      </c>
+      <c r="SB1" t="inlineStr">
+        <is>
+          <t>2000M11</t>
+        </is>
+      </c>
+      <c r="SC1" t="inlineStr">
+        <is>
+          <t>2000M12</t>
+        </is>
+      </c>
+      <c r="SD1" t="inlineStr">
+        <is>
+          <t>2001M1</t>
+        </is>
+      </c>
+      <c r="SE1" t="inlineStr">
+        <is>
+          <t>2001M2</t>
+        </is>
+      </c>
+      <c r="SF1" t="inlineStr">
+        <is>
+          <t>2001M3</t>
+        </is>
+      </c>
+      <c r="SG1" t="inlineStr">
+        <is>
+          <t>2001M4</t>
+        </is>
+      </c>
+      <c r="SH1" t="inlineStr">
+        <is>
+          <t>2001M5</t>
+        </is>
+      </c>
+      <c r="SI1" t="inlineStr">
+        <is>
+          <t>2001M6</t>
+        </is>
+      </c>
+      <c r="SJ1" t="inlineStr">
+        <is>
+          <t>2001M7</t>
+        </is>
+      </c>
+      <c r="SK1" t="inlineStr">
+        <is>
+          <t>2001M8</t>
+        </is>
+      </c>
+      <c r="SL1" t="inlineStr">
+        <is>
+          <t>2001M9</t>
+        </is>
+      </c>
+      <c r="SM1" t="inlineStr">
+        <is>
+          <t>2001M10</t>
+        </is>
+      </c>
+      <c r="SN1" t="inlineStr">
+        <is>
+          <t>2001M11</t>
+        </is>
+      </c>
+      <c r="SO1" t="inlineStr">
+        <is>
+          <t>2001M12</t>
+        </is>
+      </c>
+      <c r="SP1" t="inlineStr">
+        <is>
+          <t>2002M1</t>
+        </is>
+      </c>
+      <c r="SQ1" t="inlineStr">
+        <is>
+          <t>2002M2</t>
+        </is>
+      </c>
+      <c r="SR1" t="inlineStr">
+        <is>
+          <t>2002M3</t>
+        </is>
+      </c>
+      <c r="SS1" t="inlineStr">
+        <is>
+          <t>2002M4</t>
+        </is>
+      </c>
+      <c r="ST1" t="inlineStr">
+        <is>
+          <t>2002M5</t>
+        </is>
+      </c>
+      <c r="SU1" t="inlineStr">
+        <is>
+          <t>2002M6</t>
+        </is>
+      </c>
+      <c r="SV1" t="inlineStr">
+        <is>
+          <t>2002M7</t>
+        </is>
+      </c>
+      <c r="SW1" t="inlineStr">
+        <is>
+          <t>2002M8</t>
+        </is>
+      </c>
+      <c r="SX1" t="inlineStr">
+        <is>
+          <t>2002M9</t>
+        </is>
+      </c>
+      <c r="SY1" t="inlineStr">
+        <is>
+          <t>2002M10</t>
+        </is>
+      </c>
+      <c r="SZ1" t="inlineStr">
+        <is>
+          <t>2002M11</t>
+        </is>
+      </c>
+      <c r="TA1" t="inlineStr">
+        <is>
+          <t>2002M12</t>
+        </is>
+      </c>
+      <c r="TB1" t="inlineStr">
+        <is>
+          <t>2003M1</t>
+        </is>
+      </c>
+      <c r="TC1" t="inlineStr">
+        <is>
+          <t>2003M2</t>
+        </is>
+      </c>
+      <c r="TD1" t="inlineStr">
+        <is>
+          <t>2003M3</t>
+        </is>
+      </c>
+      <c r="TE1" t="inlineStr">
+        <is>
+          <t>2003M4</t>
+        </is>
+      </c>
+      <c r="TF1" t="inlineStr">
+        <is>
+          <t>2003M5</t>
+        </is>
+      </c>
+      <c r="TG1" t="inlineStr">
+        <is>
+          <t>2003M6</t>
+        </is>
+      </c>
+      <c r="TH1" t="inlineStr">
+        <is>
+          <t>2003M7</t>
+        </is>
+      </c>
+      <c r="TI1" t="inlineStr">
+        <is>
+          <t>2003M8</t>
+        </is>
+      </c>
+      <c r="TJ1" t="inlineStr">
+        <is>
+          <t>2003M9</t>
+        </is>
+      </c>
+      <c r="TK1" t="inlineStr">
+        <is>
+          <t>2003M10</t>
+        </is>
+      </c>
+      <c r="TL1" t="inlineStr">
+        <is>
+          <t>2003M11</t>
+        </is>
+      </c>
+      <c r="TM1" t="inlineStr">
+        <is>
+          <t>2003M12</t>
+        </is>
+      </c>
+      <c r="TN1" t="inlineStr">
+        <is>
+          <t>2004M1</t>
+        </is>
+      </c>
+      <c r="TO1" t="inlineStr">
+        <is>
+          <t>2004M2</t>
+        </is>
+      </c>
+      <c r="TP1" t="inlineStr">
+        <is>
+          <t>2004M3</t>
+        </is>
+      </c>
+      <c r="TQ1" t="inlineStr">
+        <is>
+          <t>2004M4</t>
+        </is>
+      </c>
+      <c r="TR1" t="inlineStr">
+        <is>
+          <t>2004M5</t>
+        </is>
+      </c>
+      <c r="TS1" t="inlineStr">
+        <is>
+          <t>2004M6</t>
+        </is>
+      </c>
+      <c r="TT1" t="inlineStr">
+        <is>
+          <t>2004M7</t>
+        </is>
+      </c>
+      <c r="TU1" t="inlineStr">
+        <is>
+          <t>2004M8</t>
+        </is>
+      </c>
+      <c r="TV1" t="inlineStr">
+        <is>
+          <t>2004M9</t>
+        </is>
+      </c>
+      <c r="TW1" t="inlineStr">
+        <is>
+          <t>2004M10</t>
+        </is>
+      </c>
+      <c r="TX1" t="inlineStr">
+        <is>
+          <t>2004M11</t>
+        </is>
+      </c>
+      <c r="TY1" t="inlineStr">
+        <is>
+          <t>2004M12</t>
+        </is>
+      </c>
+      <c r="TZ1" t="inlineStr">
+        <is>
+          <t>2005M1</t>
+        </is>
+      </c>
+      <c r="UA1" t="inlineStr">
+        <is>
+          <t>2005M2</t>
+        </is>
+      </c>
+      <c r="UB1" t="inlineStr">
+        <is>
+          <t>2005M3</t>
+        </is>
+      </c>
+      <c r="UC1" t="inlineStr">
+        <is>
+          <t>2005M4</t>
+        </is>
+      </c>
+      <c r="UD1" t="inlineStr">
+        <is>
+          <t>2005M5</t>
+        </is>
+      </c>
+      <c r="UE1" t="inlineStr">
+        <is>
+          <t>2005M6</t>
+        </is>
+      </c>
+      <c r="UF1" t="inlineStr">
+        <is>
+          <t>2005M7</t>
+        </is>
+      </c>
+      <c r="UG1" t="inlineStr">
+        <is>
+          <t>2005M8</t>
+        </is>
+      </c>
+      <c r="UH1" t="inlineStr">
+        <is>
+          <t>2005M9</t>
+        </is>
+      </c>
+      <c r="UI1" t="inlineStr">
+        <is>
+          <t>2005M10</t>
+        </is>
+      </c>
+      <c r="UJ1" t="inlineStr">
+        <is>
+          <t>2005M11</t>
+        </is>
+      </c>
+      <c r="UK1" t="inlineStr">
+        <is>
+          <t>2005M12</t>
+        </is>
+      </c>
+      <c r="UL1" t="inlineStr">
+        <is>
+          <t>2006M1</t>
+        </is>
+      </c>
+      <c r="UM1" t="inlineStr">
+        <is>
+          <t>2006M2</t>
+        </is>
+      </c>
+      <c r="UN1" t="inlineStr">
+        <is>
+          <t>2006M3</t>
+        </is>
+      </c>
+      <c r="UO1" t="inlineStr">
+        <is>
+          <t>2006M4</t>
+        </is>
+      </c>
+      <c r="UP1" t="inlineStr">
+        <is>
+          <t>2006M5</t>
+        </is>
+      </c>
+      <c r="UQ1" t="inlineStr">
+        <is>
+          <t>2006M6</t>
+        </is>
+      </c>
+      <c r="UR1" t="inlineStr">
+        <is>
+          <t>2006M7</t>
+        </is>
+      </c>
+      <c r="US1" t="inlineStr">
+        <is>
+          <t>2006M8</t>
+        </is>
+      </c>
+      <c r="UT1" t="inlineStr">
+        <is>
+          <t>2006M9</t>
+        </is>
+      </c>
+      <c r="UU1" t="inlineStr">
+        <is>
+          <t>2006M10</t>
+        </is>
+      </c>
+      <c r="UV1" t="inlineStr">
+        <is>
+          <t>2006M11</t>
+        </is>
+      </c>
+      <c r="UW1" t="inlineStr">
+        <is>
+          <t>2006M12</t>
+        </is>
+      </c>
+      <c r="UX1" t="inlineStr">
+        <is>
+          <t>2007M1</t>
+        </is>
+      </c>
+      <c r="UY1" t="inlineStr">
+        <is>
+          <t>2007M2</t>
+        </is>
+      </c>
+      <c r="UZ1" t="inlineStr">
+        <is>
+          <t>2007M3</t>
+        </is>
+      </c>
+      <c r="VA1" t="inlineStr">
+        <is>
+          <t>2007M4</t>
+        </is>
+      </c>
+      <c r="VB1" t="inlineStr">
+        <is>
+          <t>2007M5</t>
+        </is>
+      </c>
+      <c r="VC1" t="inlineStr">
+        <is>
+          <t>2007M6</t>
+        </is>
+      </c>
+      <c r="VD1" t="inlineStr">
+        <is>
+          <t>2007M7</t>
+        </is>
+      </c>
+      <c r="VE1" t="inlineStr">
+        <is>
+          <t>2007M8</t>
+        </is>
+      </c>
+      <c r="VF1" t="inlineStr">
+        <is>
+          <t>2007M9</t>
+        </is>
+      </c>
+      <c r="VG1" t="inlineStr">
+        <is>
+          <t>2007M10</t>
+        </is>
+      </c>
+      <c r="VH1" t="inlineStr">
+        <is>
+          <t>2007M11</t>
+        </is>
+      </c>
+      <c r="VI1" t="inlineStr">
+        <is>
+          <t>2007M12</t>
+        </is>
+      </c>
+      <c r="VJ1" t="inlineStr">
+        <is>
+          <t>2008M1</t>
+        </is>
+      </c>
+      <c r="VK1" t="inlineStr">
+        <is>
+          <t>2008M2</t>
+        </is>
+      </c>
+      <c r="VL1" t="inlineStr">
+        <is>
+          <t>2008M3</t>
+        </is>
+      </c>
+      <c r="VM1" t="inlineStr">
+        <is>
+          <t>2008M4</t>
+        </is>
+      </c>
+      <c r="VN1" t="inlineStr">
+        <is>
+          <t>2008M5</t>
+        </is>
+      </c>
+      <c r="VO1" t="inlineStr">
+        <is>
+          <t>2008M6</t>
+        </is>
+      </c>
+      <c r="VP1" t="inlineStr">
+        <is>
+          <t>2008M7</t>
+        </is>
+      </c>
+      <c r="VQ1" t="inlineStr">
+        <is>
+          <t>2008M8</t>
+        </is>
+      </c>
+      <c r="VR1" t="inlineStr">
+        <is>
+          <t>2008M9</t>
+        </is>
+      </c>
+      <c r="VS1" t="inlineStr">
+        <is>
+          <t>2008M10</t>
+        </is>
+      </c>
+      <c r="VT1" t="inlineStr">
+        <is>
+          <t>2008M11</t>
+        </is>
+      </c>
+      <c r="VU1" t="inlineStr">
+        <is>
+          <t>2008M12</t>
+        </is>
+      </c>
+      <c r="VV1" t="inlineStr">
+        <is>
+          <t>2009M1</t>
+        </is>
+      </c>
+      <c r="VW1" t="inlineStr">
+        <is>
+          <t>2009M2</t>
+        </is>
+      </c>
+      <c r="VX1" t="inlineStr">
+        <is>
+          <t>2009M3</t>
+        </is>
+      </c>
+      <c r="VY1" t="inlineStr">
+        <is>
+          <t>2009M4</t>
+        </is>
+      </c>
+      <c r="VZ1" t="inlineStr">
+        <is>
+          <t>2009M5</t>
+        </is>
+      </c>
+      <c r="WA1" t="inlineStr">
+        <is>
+          <t>2009M6</t>
+        </is>
+      </c>
+      <c r="WB1" t="inlineStr">
+        <is>
+          <t>2009M7</t>
+        </is>
+      </c>
+      <c r="WC1" t="inlineStr">
+        <is>
+          <t>2009M8</t>
+        </is>
+      </c>
+      <c r="WD1" t="inlineStr">
+        <is>
+          <t>2009M9</t>
+        </is>
+      </c>
+      <c r="WE1" t="inlineStr">
+        <is>
+          <t>2009M10</t>
+        </is>
+      </c>
+      <c r="WF1" t="inlineStr">
+        <is>
+          <t>2009M11</t>
+        </is>
+      </c>
+      <c r="WG1" t="inlineStr">
+        <is>
+          <t>2009M12</t>
+        </is>
+      </c>
+      <c r="WH1" t="inlineStr">
+        <is>
+          <t>2010M1</t>
+        </is>
+      </c>
+      <c r="WI1" t="inlineStr">
+        <is>
+          <t>2010M2</t>
+        </is>
+      </c>
+      <c r="WJ1" t="inlineStr">
+        <is>
+          <t>2010M3</t>
+        </is>
+      </c>
+      <c r="WK1" t="inlineStr">
+        <is>
+          <t>2010M4</t>
+        </is>
+      </c>
+      <c r="WL1" t="inlineStr">
+        <is>
+          <t>2010M5</t>
+        </is>
+      </c>
+      <c r="WM1" t="inlineStr">
+        <is>
+          <t>2010M6</t>
+        </is>
+      </c>
+      <c r="WN1" t="inlineStr">
+        <is>
+          <t>2010M7</t>
+        </is>
+      </c>
+      <c r="WO1" t="inlineStr">
+        <is>
+          <t>2010M8</t>
+        </is>
+      </c>
+      <c r="WP1" t="inlineStr">
+        <is>
+          <t>2010M9</t>
+        </is>
+      </c>
+      <c r="WQ1" t="inlineStr">
+        <is>
+          <t>2010M10</t>
+        </is>
+      </c>
+      <c r="WR1" t="inlineStr">
+        <is>
+          <t>2010M11</t>
+        </is>
+      </c>
+      <c r="WS1" t="inlineStr">
+        <is>
+          <t>2010M12</t>
+        </is>
+      </c>
+      <c r="WT1" t="inlineStr">
+        <is>
+          <t>2011M1</t>
+        </is>
+      </c>
+      <c r="WU1" t="inlineStr">
+        <is>
+          <t>2011M2</t>
+        </is>
+      </c>
+      <c r="WV1" t="inlineStr">
+        <is>
+          <t>2011M3</t>
+        </is>
+      </c>
+      <c r="WW1" t="inlineStr">
+        <is>
+          <t>2011M4</t>
+        </is>
+      </c>
+      <c r="WX1" t="inlineStr">
+        <is>
+          <t>2011M5</t>
+        </is>
+      </c>
+      <c r="WY1" t="inlineStr">
+        <is>
+          <t>2011M6</t>
+        </is>
+      </c>
+      <c r="WZ1" t="inlineStr">
+        <is>
+          <t>2011M7</t>
+        </is>
+      </c>
+      <c r="XA1" t="inlineStr">
+        <is>
+          <t>2011M8</t>
+        </is>
+      </c>
+      <c r="XB1" t="inlineStr">
+        <is>
+          <t>2011M9</t>
+        </is>
+      </c>
+      <c r="XC1" t="inlineStr">
+        <is>
+          <t>2011M10</t>
+        </is>
+      </c>
+      <c r="XD1" t="inlineStr">
+        <is>
+          <t>2011M11</t>
+        </is>
+      </c>
+      <c r="XE1" t="inlineStr">
+        <is>
+          <t>2011M12</t>
+        </is>
+      </c>
+      <c r="XF1" t="inlineStr">
+        <is>
+          <t>2012M1</t>
+        </is>
+      </c>
+      <c r="XG1" t="inlineStr">
+        <is>
+          <t>2012M2</t>
+        </is>
+      </c>
+      <c r="XH1" t="inlineStr">
+        <is>
+          <t>2012M3</t>
+        </is>
+      </c>
+      <c r="XI1" t="inlineStr">
+        <is>
+          <t>2012M4</t>
+        </is>
+      </c>
+      <c r="XJ1" t="inlineStr">
+        <is>
+          <t>2012M5</t>
+        </is>
+      </c>
+      <c r="XK1" t="inlineStr">
+        <is>
+          <t>2012M6</t>
+        </is>
+      </c>
+      <c r="XL1" t="inlineStr">
+        <is>
+          <t>2012M7</t>
+        </is>
+      </c>
+      <c r="XM1" t="inlineStr">
+        <is>
+          <t>2012M8</t>
+        </is>
+      </c>
+      <c r="XN1" t="inlineStr">
+        <is>
+          <t>2012M9</t>
+        </is>
+      </c>
+      <c r="XO1" t="inlineStr">
+        <is>
+          <t>2012M10</t>
+        </is>
+      </c>
+      <c r="XP1" t="inlineStr">
+        <is>
+          <t>2012M11</t>
+        </is>
+      </c>
+      <c r="XQ1" t="inlineStr">
+        <is>
+          <t>2012M12</t>
+        </is>
+      </c>
+      <c r="XR1" t="inlineStr">
+        <is>
+          <t>2013M1</t>
+        </is>
+      </c>
+      <c r="XS1" t="inlineStr">
+        <is>
+          <t>2013M2</t>
+        </is>
+      </c>
+      <c r="XT1" t="inlineStr">
+        <is>
+          <t>2013M3</t>
+        </is>
+      </c>
+      <c r="XU1" t="inlineStr">
+        <is>
+          <t>2013M4</t>
+        </is>
+      </c>
+      <c r="XV1" t="inlineStr">
+        <is>
+          <t>2013M5</t>
+        </is>
+      </c>
+      <c r="XW1" t="inlineStr">
+        <is>
+          <t>2013M6</t>
+        </is>
+      </c>
+      <c r="XX1" t="inlineStr">
+        <is>
+          <t>2013M7</t>
+        </is>
+      </c>
+      <c r="XY1" t="inlineStr">
+        <is>
+          <t>2013M8</t>
+        </is>
+      </c>
+      <c r="XZ1" t="inlineStr">
+        <is>
+          <t>2013M9</t>
+        </is>
+      </c>
+      <c r="YA1" t="inlineStr">
+        <is>
+          <t>2013M10</t>
+        </is>
+      </c>
+      <c r="YB1" t="inlineStr">
+        <is>
+          <t>2013M11</t>
+        </is>
+      </c>
+      <c r="YC1" t="inlineStr">
+        <is>
+          <t>2013M12</t>
+        </is>
+      </c>
+      <c r="YD1" t="inlineStr">
+        <is>
+          <t>2014M1</t>
+        </is>
+      </c>
+      <c r="YE1" t="inlineStr">
+        <is>
+          <t>2014M2</t>
+        </is>
+      </c>
+      <c r="YF1" t="inlineStr">
+        <is>
+          <t>2014M3</t>
+        </is>
+      </c>
+      <c r="YG1" t="inlineStr">
+        <is>
+          <t>2014M4</t>
+        </is>
+      </c>
+      <c r="YH1" t="inlineStr">
+        <is>
+          <t>2014M5</t>
+        </is>
+      </c>
+      <c r="YI1" t="inlineStr">
+        <is>
+          <t>2014M6</t>
+        </is>
+      </c>
+      <c r="YJ1" t="inlineStr">
+        <is>
+          <t>2014M7</t>
+        </is>
+      </c>
+      <c r="YK1" t="inlineStr">
+        <is>
+          <t>2014M8</t>
+        </is>
+      </c>
+      <c r="YL1" t="inlineStr">
+        <is>
+          <t>2014M9</t>
+        </is>
+      </c>
+      <c r="YM1" t="inlineStr">
+        <is>
+          <t>2014M10</t>
+        </is>
+      </c>
+      <c r="YN1" t="inlineStr">
+        <is>
+          <t>2014M11</t>
+        </is>
+      </c>
+      <c r="YO1" t="inlineStr">
+        <is>
+          <t>2014M12</t>
+        </is>
+      </c>
+      <c r="YP1" t="inlineStr">
+        <is>
+          <t>2015M1</t>
+        </is>
+      </c>
+      <c r="YQ1" t="inlineStr">
+        <is>
+          <t>2015M2</t>
+        </is>
+      </c>
+      <c r="YR1" t="inlineStr">
+        <is>
+          <t>2015M3</t>
+        </is>
+      </c>
+      <c r="YS1" t="inlineStr">
+        <is>
+          <t>2015M4</t>
+        </is>
+      </c>
+      <c r="YT1" t="inlineStr">
+        <is>
+          <t>2015M5</t>
+        </is>
+      </c>
+      <c r="YU1" t="inlineStr">
+        <is>
+          <t>2015M6</t>
+        </is>
+      </c>
+      <c r="YV1" t="inlineStr">
+        <is>
+          <t>2015M7</t>
+        </is>
+      </c>
+      <c r="YW1" t="inlineStr">
+        <is>
+          <t>2015M8</t>
+        </is>
+      </c>
+      <c r="YX1" t="inlineStr">
+        <is>
+          <t>2015M9</t>
+        </is>
+      </c>
+      <c r="YY1" t="inlineStr">
+        <is>
+          <t>2015M10</t>
+        </is>
+      </c>
+      <c r="YZ1" t="inlineStr">
+        <is>
+          <t>2015M11</t>
+        </is>
+      </c>
+      <c r="ZA1" t="inlineStr">
+        <is>
+          <t>2015M12</t>
+        </is>
+      </c>
+      <c r="ZB1" t="inlineStr">
+        <is>
+          <t>2016M1</t>
+        </is>
+      </c>
+      <c r="ZC1" t="inlineStr">
+        <is>
+          <t>2016M2</t>
+        </is>
+      </c>
+      <c r="ZD1" t="inlineStr">
+        <is>
+          <t>2016M3</t>
+        </is>
+      </c>
+      <c r="ZE1" t="inlineStr">
+        <is>
+          <t>2016M4</t>
+        </is>
+      </c>
+      <c r="ZF1" t="inlineStr">
+        <is>
+          <t>2016M5</t>
+        </is>
+      </c>
+      <c r="ZG1" t="inlineStr">
+        <is>
+          <t>2016M6</t>
+        </is>
+      </c>
+      <c r="ZH1" t="inlineStr">
+        <is>
+          <t>2016M7</t>
+        </is>
+      </c>
+      <c r="ZI1" t="inlineStr">
+        <is>
+          <t>2016M8</t>
+        </is>
+      </c>
+      <c r="ZJ1" t="inlineStr">
+        <is>
+          <t>2016M9</t>
+        </is>
+      </c>
+      <c r="ZK1" t="inlineStr">
+        <is>
+          <t>2016M10</t>
+        </is>
+      </c>
+      <c r="ZL1" t="inlineStr">
+        <is>
+          <t>2016M11</t>
+        </is>
+      </c>
+      <c r="ZM1" t="inlineStr">
+        <is>
+          <t>2016M12</t>
+        </is>
+      </c>
+      <c r="ZN1" t="inlineStr">
+        <is>
+          <t>2017M1</t>
+        </is>
+      </c>
+      <c r="ZO1" t="inlineStr">
+        <is>
+          <t>2017M2</t>
+        </is>
+      </c>
+      <c r="ZP1" t="inlineStr">
+        <is>
+          <t>2017M3</t>
+        </is>
+      </c>
+      <c r="ZQ1" t="inlineStr">
+        <is>
+          <t>2017M4</t>
+        </is>
+      </c>
+      <c r="ZR1" t="inlineStr">
+        <is>
+          <t>2017M5</t>
+        </is>
+      </c>
+      <c r="ZS1" t="inlineStr">
+        <is>
+          <t>2017M6</t>
+        </is>
+      </c>
+      <c r="ZT1" t="inlineStr">
+        <is>
+          <t>2017M7</t>
+        </is>
+      </c>
+      <c r="ZU1" t="inlineStr">
+        <is>
+          <t>2017M8</t>
+        </is>
+      </c>
+      <c r="ZV1" t="inlineStr">
+        <is>
+          <t>2017M9</t>
+        </is>
+      </c>
+      <c r="ZW1" t="inlineStr">
+        <is>
+          <t>2017M10</t>
+        </is>
+      </c>
+      <c r="ZX1" t="inlineStr">
+        <is>
+          <t>2017M11</t>
+        </is>
+      </c>
+      <c r="ZY1" t="inlineStr">
+        <is>
+          <t>2017M12</t>
+        </is>
+      </c>
+      <c r="ZZ1" t="inlineStr">
+        <is>
+          <t>2018M1</t>
+        </is>
+      </c>
+      <c r="AAA1" t="inlineStr">
+        <is>
+          <t>2018M2</t>
+        </is>
+      </c>
+      <c r="AAB1" t="inlineStr">
+        <is>
+          <t>2018M3</t>
+        </is>
+      </c>
+      <c r="AAC1" t="inlineStr">
+        <is>
+          <t>2018M4</t>
+        </is>
+      </c>
+      <c r="AAD1" t="inlineStr">
+        <is>
+          <t>2018M5</t>
+        </is>
+      </c>
+      <c r="AAE1" t="inlineStr">
+        <is>
+          <t>2018M6</t>
+        </is>
+      </c>
+      <c r="AAF1" t="inlineStr">
+        <is>
+          <t>2018M7</t>
+        </is>
+      </c>
+      <c r="AAG1" t="inlineStr">
+        <is>
+          <t>2018M8</t>
+        </is>
+      </c>
+      <c r="AAH1" t="inlineStr">
+        <is>
+          <t>2018M9</t>
+        </is>
+      </c>
+      <c r="AAI1" t="inlineStr">
+        <is>
+          <t>2018M10</t>
+        </is>
+      </c>
+      <c r="AAJ1" t="inlineStr">
+        <is>
+          <t>2018M11</t>
+        </is>
+      </c>
+      <c r="AAK1" t="inlineStr">
+        <is>
+          <t>2018M12</t>
+        </is>
+      </c>
+      <c r="AAL1" t="inlineStr">
+        <is>
+          <t>2019M1</t>
+        </is>
+      </c>
+      <c r="AAM1" t="inlineStr">
+        <is>
+          <t>2019M2</t>
+        </is>
+      </c>
+      <c r="AAN1" t="inlineStr">
+        <is>
+          <t>2019M3</t>
+        </is>
+      </c>
+      <c r="AAO1" t="inlineStr">
+        <is>
+          <t>2019M4</t>
+        </is>
+      </c>
+      <c r="AAP1" t="inlineStr">
+        <is>
+          <t>2019M5</t>
+        </is>
+      </c>
+      <c r="AAQ1" t="inlineStr">
+        <is>
+          <t>2019M6</t>
+        </is>
+      </c>
+      <c r="AAR1" t="inlineStr">
+        <is>
+          <t>2019M7</t>
+        </is>
+      </c>
+      <c r="AAS1" t="inlineStr">
+        <is>
+          <t>2019M8</t>
+        </is>
+      </c>
+      <c r="AAT1" t="inlineStr">
+        <is>
+          <t>2019M9</t>
+        </is>
+      </c>
+      <c r="AAU1" t="inlineStr">
+        <is>
+          <t>2019M10</t>
+        </is>
+      </c>
+      <c r="AAV1" t="inlineStr">
+        <is>
+          <t>2019M11</t>
+        </is>
+      </c>
+      <c r="AAW1" t="inlineStr">
+        <is>
+          <t>2019M12</t>
+        </is>
+      </c>
+      <c r="AAX1" t="inlineStr">
+        <is>
+          <t>2020M1</t>
+        </is>
+      </c>
+      <c r="AAY1" t="inlineStr">
+        <is>
+          <t>2020M2</t>
+        </is>
+      </c>
+      <c r="AAZ1" t="inlineStr">
+        <is>
+          <t>2020M3</t>
+        </is>
+      </c>
+      <c r="ABA1" t="inlineStr">
+        <is>
+          <t>2020M4</t>
+        </is>
+      </c>
+      <c r="ABB1" t="inlineStr">
+        <is>
+          <t>2020M5</t>
+        </is>
+      </c>
+      <c r="ABC1" t="inlineStr">
+        <is>
+          <t>2020M6</t>
+        </is>
+      </c>
+      <c r="ABD1" t="inlineStr">
+        <is>
+          <t>2020M7</t>
+        </is>
+      </c>
+      <c r="ABE1" t="inlineStr">
+        <is>
+          <t>2020M8</t>
+        </is>
+      </c>
+      <c r="ABF1" t="inlineStr">
+        <is>
+          <t>2020M9</t>
+        </is>
+      </c>
+      <c r="ABG1" t="inlineStr">
+        <is>
+          <t>2020M10</t>
+        </is>
+      </c>
+      <c r="ABH1" t="inlineStr">
+        <is>
+          <t>2020M11</t>
+        </is>
+      </c>
+      <c r="ABI1" t="inlineStr">
+        <is>
+          <t>2020M12</t>
+        </is>
+      </c>
+      <c r="ABJ1" t="inlineStr">
+        <is>
+          <t>2021M1</t>
+        </is>
+      </c>
+      <c r="ABK1" t="inlineStr">
+        <is>
+          <t>2021M2</t>
+        </is>
+      </c>
+      <c r="ABL1" t="inlineStr">
+        <is>
+          <t>2021M3</t>
+        </is>
+      </c>
+      <c r="ABM1" t="inlineStr">
+        <is>
+          <t>2021M4</t>
+        </is>
+      </c>
+      <c r="ABN1" t="inlineStr">
+        <is>
+          <t>2021M5</t>
+        </is>
+      </c>
+      <c r="ABO1" t="inlineStr">
+        <is>
+          <t>2021M6</t>
+        </is>
+      </c>
+      <c r="ABP1" t="inlineStr">
+        <is>
+          <t>2021M7</t>
+        </is>
+      </c>
+      <c r="ABQ1" t="inlineStr">
+        <is>
+          <t>2021M8</t>
+        </is>
+      </c>
+      <c r="ABR1" t="inlineStr">
+        <is>
+          <t>2021M9</t>
+        </is>
+      </c>
+      <c r="ABS1" t="inlineStr">
+        <is>
+          <t>2021M10</t>
+        </is>
+      </c>
+      <c r="ABT1" t="inlineStr">
+        <is>
+          <t>2021M11</t>
+        </is>
+      </c>
+      <c r="ABU1" t="inlineStr">
+        <is>
+          <t>2021M12</t>
+        </is>
+      </c>
+      <c r="ABV1" t="inlineStr">
+        <is>
+          <t>2022M1</t>
+        </is>
+      </c>
+      <c r="ABW1" t="inlineStr">
+        <is>
+          <t>2022M2</t>
+        </is>
+      </c>
+      <c r="ABX1" t="inlineStr">
+        <is>
+          <t>2022M3</t>
+        </is>
+      </c>
+      <c r="ABY1" t="inlineStr">
+        <is>
+          <t>2022M4</t>
+        </is>
+      </c>
+      <c r="ABZ1" t="inlineStr">
+        <is>
+          <t>2022M5</t>
+        </is>
+      </c>
+      <c r="ACA1" t="inlineStr">
+        <is>
+          <t>2022M6</t>
+        </is>
+      </c>
+      <c r="ACB1" t="inlineStr">
+        <is>
+          <t>2022M7</t>
+        </is>
+      </c>
+      <c r="ACC1" t="inlineStr">
+        <is>
+          <t>2022M8</t>
+        </is>
+      </c>
+      <c r="ACD1" t="inlineStr">
+        <is>
+          <t>2022M9</t>
+        </is>
+      </c>
+      <c r="ACE1" t="inlineStr">
+        <is>
+          <t>2022M10</t>
+        </is>
+      </c>
+      <c r="ACF1" t="inlineStr">
+        <is>
+          <t>2022M11</t>
+        </is>
+      </c>
+      <c r="ACG1" t="inlineStr">
+        <is>
+          <t>2022M12</t>
+        </is>
+      </c>
+      <c r="ACH1" t="inlineStr">
+        <is>
+          <t>2023M1</t>
+        </is>
+      </c>
+      <c r="ACI1" t="inlineStr">
+        <is>
+          <t>2023M2</t>
+        </is>
+      </c>
+      <c r="ACJ1" t="inlineStr">
+        <is>
+          <t>2023M3</t>
+        </is>
+      </c>
+      <c r="ACK1" t="inlineStr">
+        <is>
+          <t>2023M4</t>
+        </is>
+      </c>
+      <c r="ACL1" t="inlineStr">
+        <is>
+          <t>2023M5</t>
+        </is>
+      </c>
+      <c r="ACM1" t="inlineStr">
+        <is>
+          <t>2023M6</t>
+        </is>
+      </c>
+      <c r="ACN1" t="inlineStr">
+        <is>
+          <t>2023M7</t>
+        </is>
+      </c>
+      <c r="ACO1" t="inlineStr">
+        <is>
+          <t>2023M8</t>
+        </is>
+      </c>
+      <c r="ACP1" t="inlineStr">
+        <is>
+          <t>2023M9</t>
+        </is>
+      </c>
+      <c r="ACQ1" t="inlineStr">
+        <is>
+          <t>2023M10</t>
+        </is>
+      </c>
+      <c r="ACR1" t="inlineStr">
+        <is>
+          <t>2023M11</t>
+        </is>
+      </c>
+      <c r="ACS1" t="inlineStr">
+        <is>
+          <t>2023M12</t>
+        </is>
+      </c>
+      <c r="ACT1" t="inlineStr">
+        <is>
+          <t>2024M1</t>
+        </is>
+      </c>
+      <c r="ACU1" t="inlineStr">
+        <is>
+          <t>2024M2</t>
+        </is>
+      </c>
+      <c r="ACV1" t="inlineStr">
+        <is>
+          <t>2024M3</t>
+        </is>
+      </c>
+      <c r="ACW1" t="inlineStr">
+        <is>
+          <t>2024M4</t>
+        </is>
+      </c>
+      <c r="ACX1" t="inlineStr">
+        <is>
+          <t>2024M5</t>
+        </is>
+      </c>
+      <c r="ACY1" t="inlineStr">
+        <is>
+          <t>2024M6</t>
+        </is>
+      </c>
+      <c r="ACZ1" t="inlineStr">
+        <is>
+          <t>2024M7</t>
+        </is>
+      </c>
+      <c r="ADA1" t="inlineStr">
+        <is>
+          <t>2024M8</t>
+        </is>
+      </c>
+      <c r="ADB1" t="inlineStr">
+        <is>
+          <t>2024M9</t>
+        </is>
+      </c>
+      <c r="ADC1" t="inlineStr">
+        <is>
+          <t>2024M10</t>
+        </is>
+      </c>
+      <c r="ADD1" t="inlineStr">
+        <is>
+          <t>2024M11</t>
+        </is>
+      </c>
+      <c r="ADE1" t="inlineStr">
+        <is>
+          <t>2024M12</t>
+        </is>
+      </c>
+      <c r="ADF1" t="inlineStr">
+        <is>
+          <t>2025M1</t>
+        </is>
+      </c>
+      <c r="ADG1" t="inlineStr">
+        <is>
+          <t>2025M2</t>
+        </is>
+      </c>
+      <c r="ADH1" t="inlineStr">
+        <is>
+          <t>2025M3</t>
+        </is>
+      </c>
+      <c r="ADI1" t="inlineStr">
+        <is>
+          <t>2025M4</t>
+        </is>
+      </c>
+      <c r="ADJ1" t="inlineStr">
+        <is>
+          <t>2025M5</t>
+        </is>
+      </c>
+      <c r="ADK1" t="inlineStr">
+        <is>
+          <t>2025M6</t>
+        </is>
+      </c>
+      <c r="ADL1" t="inlineStr">
+        <is>
+          <t>2025M7</t>
+        </is>
+      </c>
+      <c r="ADM1" t="inlineStr">
+        <is>
+          <t>2025M8</t>
+        </is>
+      </c>
+      <c r="ADN1" t="inlineStr">
+        <is>
+          <t>2025M9</t>
+        </is>
+      </c>
+      <c r="ADO1" t="inlineStr">
+        <is>
+          <t>2025M10</t>
+        </is>
+      </c>
+      <c r="ADP1" t="inlineStr">
+        <is>
+          <t>2025M11</t>
+        </is>
+      </c>
+      <c r="ADQ1" t="inlineStr">
+        <is>
+          <t>2025M12</t>
+        </is>
+      </c>
+      <c r="ADR1" t="inlineStr">
+        <is>
           <t>1960M01</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="ADS1" t="inlineStr">
         <is>
           <t>1960M02</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="ADT1" t="inlineStr">
         <is>
           <t>1960M03</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="ADU1" t="inlineStr">
         <is>
           <t>1960M04</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="ADV1" t="inlineStr">
         <is>
           <t>1960M05</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="ADW1" t="inlineStr">
         <is>
           <t>1960M06</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="ADX1" t="inlineStr">
         <is>
           <t>1960M07</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="ADY1" t="inlineStr">
         <is>
           <t>1960M08</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="ADZ1" t="inlineStr">
         <is>
           <t>1960M09</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>1960M10</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>1960M11</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>1960M12</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
+      <c r="AEA1" t="inlineStr">
         <is>
           <t>1961M01</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AEB1" t="inlineStr">
         <is>
           <t>1961M02</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AEC1" t="inlineStr">
         <is>
           <t>1961M03</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AED1" t="inlineStr">
         <is>
           <t>1961M04</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AEE1" t="inlineStr">
         <is>
           <t>1961M05</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AEF1" t="inlineStr">
         <is>
           <t>1961M06</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AEG1" t="inlineStr">
         <is>
           <t>1961M07</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AEH1" t="inlineStr">
         <is>
           <t>1961M08</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AEI1" t="inlineStr">
         <is>
           <t>1961M09</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>1961M10</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>1961M11</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>1961M12</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AEJ1" t="inlineStr">
         <is>
           <t>1962M01</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AEK1" t="inlineStr">
         <is>
           <t>1962M02</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AEL1" t="inlineStr">
         <is>
           <t>1962M03</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AEM1" t="inlineStr">
         <is>
           <t>1962M04</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AEN1" t="inlineStr">
         <is>
           <t>1962M05</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AEO1" t="inlineStr">
         <is>
           <t>1962M06</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AEP1" t="inlineStr">
         <is>
           <t>1962M07</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AEQ1" t="inlineStr">
         <is>
           <t>1962M08</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AER1" t="inlineStr">
         <is>
           <t>1962M09</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>1962M10</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>1962M11</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>1962M12</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AES1" t="inlineStr">
         <is>
           <t>1963M01</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AET1" t="inlineStr">
         <is>
           <t>1963M02</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AEU1" t="inlineStr">
         <is>
           <t>1963M03</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AEV1" t="inlineStr">
         <is>
           <t>1963M04</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AEW1" t="inlineStr">
         <is>
           <t>1963M05</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AEX1" t="inlineStr">
         <is>
           <t>1963M06</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AEY1" t="inlineStr">
         <is>
           <t>1963M07</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AEZ1" t="inlineStr">
         <is>
           <t>1963M08</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AFA1" t="inlineStr">
         <is>
           <t>1963M09</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>1963M10</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>1963M11</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>1963M12</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
+      <c r="AFB1" t="inlineStr">
         <is>
           <t>1964M01</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="AFC1" t="inlineStr">
         <is>
           <t>1964M02</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="AFD1" t="inlineStr">
         <is>
           <t>1964M03</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="AFE1" t="inlineStr">
         <is>
           <t>1964M04</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="AFF1" t="inlineStr">
         <is>
           <t>1964M05</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="AFG1" t="inlineStr">
         <is>
           <t>1964M06</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="AFH1" t="inlineStr">
         <is>
           <t>1964M07</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="AFI1" t="inlineStr">
         <is>
           <t>1964M08</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="AFJ1" t="inlineStr">
         <is>
           <t>1964M09</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>1964M10</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>1964M11</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>1964M12</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
+      <c r="AFK1" t="inlineStr">
         <is>
           <t>1965M01</t>
         </is>
       </c>
-      <c r="BO1" t="inlineStr">
+      <c r="AFL1" t="inlineStr">
         <is>
           <t>1965M02</t>
         </is>
       </c>
-      <c r="BP1" t="inlineStr">
+      <c r="AFM1" t="inlineStr">
         <is>
           <t>1965M03</t>
         </is>
       </c>
-      <c r="BQ1" t="inlineStr">
+      <c r="AFN1" t="inlineStr">
         <is>
           <t>1965M04</t>
         </is>
       </c>
-      <c r="BR1" t="inlineStr">
+      <c r="AFO1" t="inlineStr">
         <is>
           <t>1965M05</t>
         </is>
       </c>
-      <c r="BS1" t="inlineStr">
+      <c r="AFP1" t="inlineStr">
         <is>
           <t>1965M06</t>
         </is>
       </c>
-      <c r="BT1" t="inlineStr">
+      <c r="AFQ1" t="inlineStr">
         <is>
           <t>1965M07</t>
         </is>
       </c>
-      <c r="BU1" t="inlineStr">
+      <c r="AFR1" t="inlineStr">
         <is>
           <t>1965M08</t>
         </is>
       </c>
-      <c r="BV1" t="inlineStr">
+      <c r="AFS1" t="inlineStr">
         <is>
           <t>1965M09</t>
         </is>
       </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>1965M10</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>1965M11</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>1965M12</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
+      <c r="AFT1" t="inlineStr">
         <is>
           <t>1966M01</t>
         </is>
       </c>
-      <c r="CA1" t="inlineStr">
+      <c r="AFU1" t="inlineStr">
         <is>
           <t>1966M02</t>
         </is>
       </c>
-      <c r="CB1" t="inlineStr">
+      <c r="AFV1" t="inlineStr">
         <is>
           <t>1966M03</t>
         </is>
       </c>
-      <c r="CC1" t="inlineStr">
+      <c r="AFW1" t="inlineStr">
         <is>
           <t>1966M04</t>
         </is>
       </c>
-      <c r="CD1" t="inlineStr">
+      <c r="AFX1" t="inlineStr">
         <is>
           <t>1966M05</t>
         </is>
       </c>
-      <c r="CE1" t="inlineStr">
+      <c r="AFY1" t="inlineStr">
         <is>
           <t>1966M06</t>
         </is>
       </c>
-      <c r="CF1" t="inlineStr">
+      <c r="AFZ1" t="inlineStr">
         <is>
           <t>1966M07</t>
         </is>
       </c>
-      <c r="CG1" t="inlineStr">
+      <c r="AGA1" t="inlineStr">
         <is>
           <t>1966M08</t>
         </is>
       </c>
-      <c r="CH1" t="inlineStr">
+      <c r="AGB1" t="inlineStr">
         <is>
           <t>1966M09</t>
         </is>
       </c>
-      <c r="CI1" t="inlineStr">
-        <is>
-          <t>1966M10</t>
-        </is>
-      </c>
-      <c r="CJ1" t="inlineStr">
-        <is>
-          <t>1966M11</t>
-        </is>
-      </c>
-      <c r="CK1" t="inlineStr">
-        <is>
-          <t>1966M12</t>
-        </is>
-      </c>
-      <c r="CL1" t="inlineStr">
+      <c r="AGC1" t="inlineStr">
         <is>
           <t>1967M01</t>
         </is>
       </c>
-      <c r="CM1" t="inlineStr">
+      <c r="AGD1" t="inlineStr">
         <is>
           <t>1967M02</t>
         </is>
       </c>
-      <c r="CN1" t="inlineStr">
+      <c r="AGE1" t="inlineStr">
         <is>
           <t>1967M03</t>
         </is>
       </c>
-      <c r="CO1" t="inlineStr">
+      <c r="AGF1" t="inlineStr">
         <is>
           <t>1967M04</t>
         </is>
       </c>
-      <c r="CP1" t="inlineStr">
+      <c r="AGG1" t="inlineStr">
         <is>
           <t>1967M05</t>
         </is>
       </c>
-      <c r="CQ1" t="inlineStr">
+      <c r="AGH1" t="inlineStr">
         <is>
           <t>1967M06</t>
         </is>
       </c>
-      <c r="CR1" t="inlineStr">
+      <c r="AGI1" t="inlineStr">
         <is>
           <t>1967M07</t>
         </is>
       </c>
-      <c r="CS1" t="inlineStr">
+      <c r="AGJ1" t="inlineStr">
         <is>
           <t>1967M08</t>
         </is>
       </c>
-      <c r="CT1" t="inlineStr">
+      <c r="AGK1" t="inlineStr">
         <is>
           <t>1967M09</t>
         </is>
       </c>
-      <c r="CU1" t="inlineStr">
-        <is>
-          <t>1967M10</t>
-        </is>
-      </c>
-      <c r="CV1" t="inlineStr">
-        <is>
-          <t>1967M11</t>
-        </is>
-      </c>
-      <c r="CW1" t="inlineStr">
-        <is>
-          <t>1967M12</t>
-        </is>
-      </c>
-      <c r="CX1" t="inlineStr">
+      <c r="AGL1" t="inlineStr">
         <is>
           <t>1968M01</t>
         </is>
       </c>
-      <c r="CY1" t="inlineStr">
+      <c r="AGM1" t="inlineStr">
         <is>
           <t>1968M02</t>
         </is>
       </c>
-      <c r="CZ1" t="inlineStr">
+      <c r="AGN1" t="inlineStr">
         <is>
           <t>1968M03</t>
         </is>
       </c>
-      <c r="DA1" t="inlineStr">
+      <c r="AGO1" t="inlineStr">
         <is>
           <t>1968M04</t>
         </is>
       </c>
-      <c r="DB1" t="inlineStr">
+      <c r="AGP1" t="inlineStr">
         <is>
           <t>1968M05</t>
         </is>
       </c>
-      <c r="DC1" t="inlineStr">
+      <c r="AGQ1" t="inlineStr">
         <is>
           <t>1968M06</t>
         </is>
       </c>
-      <c r="DD1" t="inlineStr">
+      <c r="AGR1" t="inlineStr">
         <is>
           <t>1968M07</t>
         </is>
       </c>
-      <c r="DE1" t="inlineStr">
+      <c r="AGS1" t="inlineStr">
         <is>
           <t>1968M08</t>
         </is>
       </c>
-      <c r="DF1" t="inlineStr">
+      <c r="AGT1" t="inlineStr">
         <is>
           <t>1968M09</t>
         </is>
       </c>
-      <c r="DG1" t="inlineStr">
-        <is>
-          <t>1968M10</t>
-        </is>
-      </c>
-      <c r="DH1" t="inlineStr">
-        <is>
-          <t>1968M11</t>
-        </is>
-      </c>
-      <c r="DI1" t="inlineStr">
-        <is>
-          <t>1968M12</t>
-        </is>
-      </c>
-      <c r="DJ1" t="inlineStr">
+      <c r="AGU1" t="inlineStr">
         <is>
           <t>1969M01</t>
         </is>
       </c>
-      <c r="DK1" t="inlineStr">
+      <c r="AGV1" t="inlineStr">
         <is>
           <t>1969M02</t>
         </is>
       </c>
-      <c r="DL1" t="inlineStr">
+      <c r="AGW1" t="inlineStr">
         <is>
           <t>1969M03</t>
         </is>
       </c>
-      <c r="DM1" t="inlineStr">
+      <c r="AGX1" t="inlineStr">
         <is>
           <t>1969M04</t>
         </is>
       </c>
-      <c r="DN1" t="inlineStr">
+      <c r="AGY1" t="inlineStr">
         <is>
           <t>1969M05</t>
         </is>
       </c>
-      <c r="DO1" t="inlineStr">
+      <c r="AGZ1" t="inlineStr">
         <is>
           <t>1969M06</t>
         </is>
       </c>
-      <c r="DP1" t="inlineStr">
+      <c r="AHA1" t="inlineStr">
         <is>
           <t>1969M07</t>
         </is>
       </c>
-      <c r="DQ1" t="inlineStr">
+      <c r="AHB1" t="inlineStr">
         <is>
           <t>1969M08</t>
         </is>
       </c>
-      <c r="DR1" t="inlineStr">
+      <c r="AHC1" t="inlineStr">
         <is>
           <t>1969M09</t>
         </is>
       </c>
-      <c r="DS1" t="inlineStr">
-        <is>
-          <t>1969M10</t>
-        </is>
-      </c>
-      <c r="DT1" t="inlineStr">
-        <is>
-          <t>1969M11</t>
-        </is>
-      </c>
-      <c r="DU1" t="inlineStr">
-        <is>
-          <t>1969M12</t>
-        </is>
-      </c>
-      <c r="DV1" t="inlineStr">
+      <c r="AHD1" t="inlineStr">
         <is>
           <t>1970M01</t>
         </is>
       </c>
-      <c r="DW1" t="inlineStr">
+      <c r="AHE1" t="inlineStr">
         <is>
           <t>1970M02</t>
         </is>
       </c>
-      <c r="DX1" t="inlineStr">
+      <c r="AHF1" t="inlineStr">
         <is>
           <t>1970M03</t>
         </is>
       </c>
-      <c r="DY1" t="inlineStr">
+      <c r="AHG1" t="inlineStr">
         <is>
           <t>1970M04</t>
         </is>
       </c>
-      <c r="DZ1" t="inlineStr">
+      <c r="AHH1" t="inlineStr">
         <is>
           <t>1970M05</t>
         </is>
       </c>
-      <c r="EA1" t="inlineStr">
+      <c r="AHI1" t="inlineStr">
         <is>
           <t>1970M06</t>
         </is>
       </c>
-      <c r="EB1" t="inlineStr">
+      <c r="AHJ1" t="inlineStr">
         <is>
           <t>1970M07</t>
         </is>
       </c>
-      <c r="EC1" t="inlineStr">
+      <c r="AHK1" t="inlineStr">
         <is>
           <t>1970M08</t>
         </is>
       </c>
-      <c r="ED1" t="inlineStr">
+      <c r="AHL1" t="inlineStr">
         <is>
           <t>1970M09</t>
         </is>
       </c>
-      <c r="EE1" t="inlineStr">
-        <is>
-          <t>1970M10</t>
-        </is>
-      </c>
-      <c r="EF1" t="inlineStr">
-        <is>
-          <t>1970M11</t>
-        </is>
-      </c>
-      <c r="EG1" t="inlineStr">
-        <is>
-          <t>1970M12</t>
-        </is>
-      </c>
-      <c r="EH1" t="inlineStr">
+      <c r="AHM1" t="inlineStr">
         <is>
           <t>1971M01</t>
         </is>
       </c>
-      <c r="EI1" t="inlineStr">
+      <c r="AHN1" t="inlineStr">
         <is>
           <t>1971M02</t>
         </is>
       </c>
-      <c r="EJ1" t="inlineStr">
+      <c r="AHO1" t="inlineStr">
         <is>
           <t>1971M03</t>
         </is>
       </c>
-      <c r="EK1" t="inlineStr">
+      <c r="AHP1" t="inlineStr">
         <is>
           <t>1971M04</t>
         </is>
       </c>
-      <c r="EL1" t="inlineStr">
+      <c r="AHQ1" t="inlineStr">
         <is>
           <t>1971M05</t>
         </is>
       </c>
-      <c r="EM1" t="inlineStr">
+      <c r="AHR1" t="inlineStr">
         <is>
           <t>1971M06</t>
         </is>
       </c>
-      <c r="EN1" t="inlineStr">
+      <c r="AHS1" t="inlineStr">
         <is>
           <t>1971M07</t>
         </is>
       </c>
-      <c r="EO1" t="inlineStr">
+      <c r="AHT1" t="inlineStr">
         <is>
           <t>1971M08</t>
         </is>
       </c>
-      <c r="EP1" t="inlineStr">
+      <c r="AHU1" t="inlineStr">
         <is>
           <t>1971M09</t>
         </is>
       </c>
-      <c r="EQ1" t="inlineStr">
-        <is>
-          <t>1971M10</t>
-        </is>
-      </c>
-      <c r="ER1" t="inlineStr">
-        <is>
-          <t>1971M11</t>
-        </is>
-      </c>
-      <c r="ES1" t="inlineStr">
-        <is>
-          <t>1971M12</t>
-        </is>
-      </c>
-      <c r="ET1" t="inlineStr">
+      <c r="AHV1" t="inlineStr">
         <is>
           <t>1972M01</t>
         </is>
       </c>
-      <c r="EU1" t="inlineStr">
+      <c r="AHW1" t="inlineStr">
         <is>
           <t>1972M02</t>
         </is>
       </c>
-      <c r="EV1" t="inlineStr">
+      <c r="AHX1" t="inlineStr">
         <is>
           <t>1972M03</t>
         </is>
       </c>
-      <c r="EW1" t="inlineStr">
+      <c r="AHY1" t="inlineStr">
         <is>
           <t>1972M04</t>
         </is>
       </c>
-      <c r="EX1" t="inlineStr">
+      <c r="AHZ1" t="inlineStr">
         <is>
           <t>1972M05</t>
         </is>
       </c>
-      <c r="EY1" t="inlineStr">
+      <c r="AIA1" t="inlineStr">
         <is>
           <t>1972M06</t>
         </is>
       </c>
-      <c r="EZ1" t="inlineStr">
+      <c r="AIB1" t="inlineStr">
         <is>
           <t>1972M07</t>
         </is>
       </c>
-      <c r="FA1" t="inlineStr">
+      <c r="AIC1" t="inlineStr">
         <is>
           <t>1972M08</t>
         </is>
       </c>
-      <c r="FB1" t="inlineStr">
+      <c r="AID1" t="inlineStr">
         <is>
           <t>1972M09</t>
         </is>
       </c>
-      <c r="FC1" t="inlineStr">
-        <is>
-          <t>1972M10</t>
-        </is>
-      </c>
-      <c r="FD1" t="inlineStr">
-        <is>
-          <t>1972M11</t>
-        </is>
-      </c>
-      <c r="FE1" t="inlineStr">
-        <is>
-          <t>1972M12</t>
-        </is>
-      </c>
-      <c r="FF1" t="inlineStr">
+      <c r="AIE1" t="inlineStr">
         <is>
           <t>1973M01</t>
         </is>
       </c>
-      <c r="FG1" t="inlineStr">
+      <c r="AIF1" t="inlineStr">
         <is>
           <t>1973M02</t>
         </is>
       </c>
-      <c r="FH1" t="inlineStr">
+      <c r="AIG1" t="inlineStr">
         <is>
           <t>1973M03</t>
         </is>
       </c>
-      <c r="FI1" t="inlineStr">
+      <c r="AIH1" t="inlineStr">
         <is>
           <t>1973M04</t>
         </is>
       </c>
-      <c r="FJ1" t="inlineStr">
+      <c r="AII1" t="inlineStr">
         <is>
           <t>1973M05</t>
         </is>
       </c>
-      <c r="FK1" t="inlineStr">
+      <c r="AIJ1" t="inlineStr">
         <is>
           <t>1973M06</t>
         </is>
       </c>
-      <c r="FL1" t="inlineStr">
+      <c r="AIK1" t="inlineStr">
         <is>
           <t>1973M07</t>
         </is>
       </c>
-      <c r="FM1" t="inlineStr">
+      <c r="AIL1" t="inlineStr">
         <is>
           <t>1973M08</t>
         </is>
       </c>
-      <c r="FN1" t="inlineStr">
+      <c r="AIM1" t="inlineStr">
         <is>
           <t>1973M09</t>
         </is>
       </c>
-      <c r="FO1" t="inlineStr">
-        <is>
-          <t>1973M10</t>
-        </is>
-      </c>
-      <c r="FP1" t="inlineStr">
-        <is>
-          <t>1973M11</t>
-        </is>
-      </c>
-      <c r="FQ1" t="inlineStr">
-        <is>
-          <t>1973M12</t>
-        </is>
-      </c>
-      <c r="FR1" t="inlineStr">
+      <c r="AIN1" t="inlineStr">
         <is>
           <t>1974M01</t>
         </is>
       </c>
-      <c r="FS1" t="inlineStr">
+      <c r="AIO1" t="inlineStr">
         <is>
           <t>1974M02</t>
         </is>
       </c>
-      <c r="FT1" t="inlineStr">
+      <c r="AIP1" t="inlineStr">
         <is>
           <t>1974M03</t>
         </is>
       </c>
-      <c r="FU1" t="inlineStr">
+      <c r="AIQ1" t="inlineStr">
         <is>
           <t>1974M04</t>
         </is>
       </c>
-      <c r="FV1" t="inlineStr">
+      <c r="AIR1" t="inlineStr">
         <is>
           <t>1974M05</t>
         </is>
       </c>
-      <c r="FW1" t="inlineStr">
+      <c r="AIS1" t="inlineStr">
         <is>
           <t>1974M06</t>
         </is>
       </c>
-      <c r="FX1" t="inlineStr">
+      <c r="AIT1" t="inlineStr">
         <is>
           <t>1974M07</t>
         </is>
       </c>
-      <c r="FY1" t="inlineStr">
+      <c r="AIU1" t="inlineStr">
         <is>
           <t>1974M08</t>
         </is>
       </c>
-      <c r="FZ1" t="inlineStr">
+      <c r="AIV1" t="inlineStr">
         <is>
           <t>1974M09</t>
         </is>
       </c>
-      <c r="GA1" t="inlineStr">
-        <is>
-          <t>1974M10</t>
-        </is>
-      </c>
-      <c r="GB1" t="inlineStr">
-        <is>
-          <t>1974M11</t>
-        </is>
-      </c>
-      <c r="GC1" t="inlineStr">
-        <is>
-          <t>1974M12</t>
-        </is>
-      </c>
-      <c r="GD1" t="inlineStr">
+      <c r="AIW1" t="inlineStr">
         <is>
           <t>1975M01</t>
         </is>
       </c>
-      <c r="GE1" t="inlineStr">
+      <c r="AIX1" t="inlineStr">
         <is>
           <t>1975M02</t>
         </is>
       </c>
-      <c r="GF1" t="inlineStr">
+      <c r="AIY1" t="inlineStr">
         <is>
           <t>1975M03</t>
         </is>
       </c>
-      <c r="GG1" t="inlineStr">
+      <c r="AIZ1" t="inlineStr">
         <is>
           <t>1975M04</t>
         </is>
       </c>
-      <c r="GH1" t="inlineStr">
+      <c r="AJA1" t="inlineStr">
         <is>
           <t>1975M05</t>
         </is>
       </c>
-      <c r="GI1" t="inlineStr">
+      <c r="AJB1" t="inlineStr">
         <is>
           <t>1975M06</t>
         </is>
       </c>
-      <c r="GJ1" t="inlineStr">
+      <c r="AJC1" t="inlineStr">
         <is>
           <t>1975M07</t>
         </is>
       </c>
-      <c r="GK1" t="inlineStr">
+      <c r="AJD1" t="inlineStr">
         <is>
           <t>1975M08</t>
         </is>
       </c>
-      <c r="GL1" t="inlineStr">
+      <c r="AJE1" t="inlineStr">
         <is>
           <t>1975M09</t>
         </is>
       </c>
-      <c r="GM1" t="inlineStr">
-        <is>
-          <t>1975M10</t>
-        </is>
-      </c>
-      <c r="GN1" t="inlineStr">
-        <is>
-          <t>1975M11</t>
-        </is>
-      </c>
-      <c r="GO1" t="inlineStr">
-        <is>
-          <t>1975M12</t>
-        </is>
-      </c>
-      <c r="GP1" t="inlineStr">
+      <c r="AJF1" t="inlineStr">
         <is>
           <t>1976M01</t>
         </is>
       </c>
-      <c r="GQ1" t="inlineStr">
+      <c r="AJG1" t="inlineStr">
         <is>
           <t>1976M02</t>
         </is>
       </c>
-      <c r="GR1" t="inlineStr">
+      <c r="AJH1" t="inlineStr">
         <is>
           <t>1976M03</t>
         </is>
       </c>
-      <c r="GS1" t="inlineStr">
+      <c r="AJI1" t="inlineStr">
         <is>
           <t>1976M04</t>
         </is>
       </c>
-      <c r="GT1" t="inlineStr">
+      <c r="AJJ1" t="inlineStr">
         <is>
           <t>1976M05</t>
         </is>
       </c>
-      <c r="GU1" t="inlineStr">
+      <c r="AJK1" t="inlineStr">
         <is>
           <t>1976M06</t>
         </is>
       </c>
-      <c r="GV1" t="inlineStr">
+      <c r="AJL1" t="inlineStr">
         <is>
           <t>1976M07</t>
         </is>
       </c>
-      <c r="GW1" t="inlineStr">
+      <c r="AJM1" t="inlineStr">
         <is>
           <t>1976M08</t>
         </is>
       </c>
-      <c r="GX1" t="inlineStr">
+      <c r="AJN1" t="inlineStr">
         <is>
           <t>1976M09</t>
         </is>
       </c>
-      <c r="GY1" t="inlineStr">
-        <is>
-          <t>1976M10</t>
-        </is>
-      </c>
-      <c r="GZ1" t="inlineStr">
-        <is>
-          <t>1976M11</t>
-        </is>
-      </c>
-      <c r="HA1" t="inlineStr">
-        <is>
-          <t>1976M12</t>
-        </is>
-      </c>
-      <c r="HB1" t="inlineStr">
+      <c r="AJO1" t="inlineStr">
         <is>
           <t>1977M01</t>
         </is>
       </c>
-      <c r="HC1" t="inlineStr">
+      <c r="AJP1" t="inlineStr">
         <is>
           <t>1977M02</t>
         </is>
       </c>
-      <c r="HD1" t="inlineStr">
+      <c r="AJQ1" t="inlineStr">
         <is>
           <t>1977M03</t>
         </is>
       </c>
-      <c r="HE1" t="inlineStr">
+      <c r="AJR1" t="inlineStr">
         <is>
           <t>1977M04</t>
         </is>
       </c>
-      <c r="HF1" t="inlineStr">
+      <c r="AJS1" t="inlineStr">
         <is>
           <t>1977M05</t>
         </is>
       </c>
-      <c r="HG1" t="inlineStr">
+      <c r="AJT1" t="inlineStr">
         <is>
           <t>1977M06</t>
         </is>
       </c>
-      <c r="HH1" t="inlineStr">
+      <c r="AJU1" t="inlineStr">
         <is>
           <t>1977M07</t>
         </is>
       </c>
-      <c r="HI1" t="inlineStr">
+      <c r="AJV1" t="inlineStr">
         <is>
           <t>1977M08</t>
         </is>
       </c>
-      <c r="HJ1" t="inlineStr">
+      <c r="AJW1" t="inlineStr">
         <is>
           <t>1977M09</t>
         </is>
       </c>
-      <c r="HK1" t="inlineStr">
-        <is>
-          <t>1977M10</t>
-        </is>
-      </c>
-      <c r="HL1" t="inlineStr">
-        <is>
-          <t>1977M11</t>
-        </is>
-      </c>
-      <c r="HM1" t="inlineStr">
-        <is>
-          <t>1977M12</t>
-        </is>
-      </c>
-      <c r="HN1" t="inlineStr">
+      <c r="AJX1" t="inlineStr">
         <is>
           <t>1978M01</t>
         </is>
       </c>
-      <c r="HO1" t="inlineStr">
+      <c r="AJY1" t="inlineStr">
         <is>
           <t>1978M02</t>
         </is>
       </c>
-      <c r="HP1" t="inlineStr">
+      <c r="AJZ1" t="inlineStr">
         <is>
           <t>1978M03</t>
         </is>
       </c>
-      <c r="HQ1" t="inlineStr">
+      <c r="AKA1" t="inlineStr">
         <is>
           <t>1978M04</t>
         </is>
       </c>
-      <c r="HR1" t="inlineStr">
+      <c r="AKB1" t="inlineStr">
         <is>
           <t>1978M05</t>
         </is>
       </c>
-      <c r="HS1" t="inlineStr">
+      <c r="AKC1" t="inlineStr">
         <is>
           <t>1978M06</t>
         </is>
       </c>
-      <c r="HT1" t="inlineStr">
+      <c r="AKD1" t="inlineStr">
         <is>
           <t>1978M07</t>
         </is>
       </c>
-      <c r="HU1" t="inlineStr">
+      <c r="AKE1" t="inlineStr">
         <is>
           <t>1978M08</t>
         </is>
       </c>
-      <c r="HV1" t="inlineStr">
+      <c r="AKF1" t="inlineStr">
         <is>
           <t>1978M09</t>
         </is>
       </c>
-      <c r="HW1" t="inlineStr">
-        <is>
-          <t>1978M10</t>
-        </is>
-      </c>
-      <c r="HX1" t="inlineStr">
-        <is>
-          <t>1978M11</t>
-        </is>
-      </c>
-      <c r="HY1" t="inlineStr">
-        <is>
-          <t>1978M12</t>
-        </is>
-      </c>
-      <c r="HZ1" t="inlineStr">
+      <c r="AKG1" t="inlineStr">
         <is>
           <t>1979M01</t>
         </is>
       </c>
-      <c r="IA1" t="inlineStr">
+      <c r="AKH1" t="inlineStr">
         <is>
           <t>1979M02</t>
         </is>
       </c>
-      <c r="IB1" t="inlineStr">
+      <c r="AKI1" t="inlineStr">
         <is>
           <t>1979M03</t>
         </is>
       </c>
-      <c r="IC1" t="inlineStr">
+      <c r="AKJ1" t="inlineStr">
         <is>
           <t>1979M04</t>
         </is>
       </c>
-      <c r="ID1" t="inlineStr">
+      <c r="AKK1" t="inlineStr">
         <is>
           <t>1979M05</t>
         </is>
       </c>
-      <c r="IE1" t="inlineStr">
+      <c r="AKL1" t="inlineStr">
         <is>
           <t>1979M06</t>
         </is>
       </c>
-      <c r="IF1" t="inlineStr">
+      <c r="AKM1" t="inlineStr">
         <is>
           <t>1979M07</t>
         </is>
       </c>
-      <c r="IG1" t="inlineStr">
+      <c r="AKN1" t="inlineStr">
         <is>
           <t>1979M08</t>
         </is>
       </c>
-      <c r="IH1" t="inlineStr">
+      <c r="AKO1" t="inlineStr">
         <is>
           <t>1979M09</t>
         </is>
       </c>
-      <c r="II1" t="inlineStr">
-        <is>
-          <t>1979M10</t>
-        </is>
-      </c>
-      <c r="IJ1" t="inlineStr">
-        <is>
-          <t>1979M11</t>
-        </is>
-      </c>
-      <c r="IK1" t="inlineStr">
-        <is>
-          <t>1979M12</t>
-        </is>
-      </c>
-      <c r="IL1" t="inlineStr">
+      <c r="AKP1" t="inlineStr">
         <is>
           <t>1980M01</t>
         </is>
       </c>
-      <c r="IM1" t="inlineStr">
+      <c r="AKQ1" t="inlineStr">
         <is>
           <t>1980M02</t>
         </is>
       </c>
-      <c r="IN1" t="inlineStr">
+      <c r="AKR1" t="inlineStr">
         <is>
           <t>1980M03</t>
         </is>
       </c>
-      <c r="IO1" t="inlineStr">
+      <c r="AKS1" t="inlineStr">
         <is>
           <t>1980M04</t>
         </is>
       </c>
-      <c r="IP1" t="inlineStr">
+      <c r="AKT1" t="inlineStr">
         <is>
           <t>1980M05</t>
         </is>
       </c>
-      <c r="IQ1" t="inlineStr">
+      <c r="AKU1" t="inlineStr">
         <is>
           <t>1980M06</t>
         </is>
       </c>
-      <c r="IR1" t="inlineStr">
+      <c r="AKV1" t="inlineStr">
         <is>
           <t>1980M07</t>
         </is>
       </c>
-      <c r="IS1" t="inlineStr">
+      <c r="AKW1" t="inlineStr">
         <is>
           <t>1980M08</t>
         </is>
       </c>
-      <c r="IT1" t="inlineStr">
+      <c r="AKX1" t="inlineStr">
         <is>
           <t>1980M09</t>
         </is>
       </c>
-      <c r="IU1" t="inlineStr">
-        <is>
-          <t>1980M10</t>
-        </is>
-      </c>
-      <c r="IV1" t="inlineStr">
-        <is>
-          <t>1980M11</t>
-        </is>
-      </c>
-      <c r="IW1" t="inlineStr">
-        <is>
-          <t>1980M12</t>
-        </is>
-      </c>
-      <c r="IX1" t="inlineStr">
+      <c r="AKY1" t="inlineStr">
         <is>
           <t>1981M01</t>
         </is>
       </c>
-      <c r="IY1" t="inlineStr">
+      <c r="AKZ1" t="inlineStr">
         <is>
           <t>1981M02</t>
         </is>
       </c>
-      <c r="IZ1" t="inlineStr">
+      <c r="ALA1" t="inlineStr">
         <is>
           <t>1981M03</t>
         </is>
       </c>
-      <c r="JA1" t="inlineStr">
+      <c r="ALB1" t="inlineStr">
         <is>
           <t>1981M04</t>
         </is>
       </c>
-      <c r="JB1" t="inlineStr">
+      <c r="ALC1" t="inlineStr">
         <is>
           <t>1981M05</t>
         </is>
       </c>
-      <c r="JC1" t="inlineStr">
+      <c r="ALD1" t="inlineStr">
         <is>
           <t>1981M06</t>
         </is>
       </c>
-      <c r="JD1" t="inlineStr">
+      <c r="ALE1" t="inlineStr">
         <is>
           <t>1981M07</t>
         </is>
       </c>
-      <c r="JE1" t="inlineStr">
+      <c r="ALF1" t="inlineStr">
         <is>
           <t>1981M08</t>
         </is>
       </c>
-      <c r="JF1" t="inlineStr">
+      <c r="ALG1" t="inlineStr">
         <is>
           <t>1981M09</t>
         </is>
       </c>
-      <c r="JG1" t="inlineStr">
-        <is>
-          <t>1981M10</t>
-        </is>
-      </c>
-      <c r="JH1" t="inlineStr">
-        <is>
-          <t>1981M11</t>
-        </is>
-      </c>
-      <c r="JI1" t="inlineStr">
-        <is>
-          <t>1981M12</t>
-        </is>
-      </c>
-      <c r="JJ1" t="inlineStr">
+      <c r="ALH1" t="inlineStr">
         <is>
           <t>1982M01</t>
         </is>
       </c>
-      <c r="JK1" t="inlineStr">
+      <c r="ALI1" t="inlineStr">
         <is>
           <t>1982M02</t>
         </is>
       </c>
-      <c r="JL1" t="inlineStr">
+      <c r="ALJ1" t="inlineStr">
         <is>
           <t>1982M03</t>
         </is>
       </c>
-      <c r="JM1" t="inlineStr">
+      <c r="ALK1" t="inlineStr">
         <is>
           <t>1982M04</t>
         </is>
       </c>
-      <c r="JN1" t="inlineStr">
+      <c r="ALL1" t="inlineStr">
         <is>
           <t>1982M05</t>
         </is>
       </c>
-      <c r="JO1" t="inlineStr">
+      <c r="ALM1" t="inlineStr">
         <is>
           <t>1982M06</t>
         </is>
       </c>
-      <c r="JP1" t="inlineStr">
+      <c r="ALN1" t="inlineStr">
         <is>
           <t>1982M07</t>
         </is>
       </c>
-      <c r="JQ1" t="inlineStr">
+      <c r="ALO1" t="inlineStr">
         <is>
           <t>1982M08</t>
         </is>
       </c>
-      <c r="JR1" t="inlineStr">
+      <c r="ALP1" t="inlineStr">
         <is>
           <t>1982M09</t>
         </is>
       </c>
-      <c r="JS1" t="inlineStr">
-        <is>
-          <t>1982M10</t>
-        </is>
-      </c>
-      <c r="JT1" t="inlineStr">
-        <is>
-          <t>1982M11</t>
-        </is>
-      </c>
-      <c r="JU1" t="inlineStr">
-        <is>
-          <t>1982M12</t>
-        </is>
-      </c>
-      <c r="JV1" t="inlineStr">
+      <c r="ALQ1" t="inlineStr">
         <is>
           <t>1983M01</t>
         </is>
       </c>
-      <c r="JW1" t="inlineStr">
+      <c r="ALR1" t="inlineStr">
         <is>
           <t>1983M02</t>
         </is>
       </c>
-      <c r="JX1" t="inlineStr">
+      <c r="ALS1" t="inlineStr">
         <is>
           <t>1983M03</t>
         </is>
       </c>
-      <c r="JY1" t="inlineStr">
+      <c r="ALT1" t="inlineStr">
         <is>
           <t>1983M04</t>
         </is>
       </c>
-      <c r="JZ1" t="inlineStr">
+      <c r="ALU1" t="inlineStr">
         <is>
           <t>1983M05</t>
         </is>
       </c>
-      <c r="KA1" t="inlineStr">
+      <c r="ALV1" t="inlineStr">
         <is>
           <t>1983M06</t>
         </is>
       </c>
-      <c r="KB1" t="inlineStr">
+      <c r="ALW1" t="inlineStr">
         <is>
           <t>1983M07</t>
         </is>
       </c>
-      <c r="KC1" t="inlineStr">
+      <c r="ALX1" t="inlineStr">
         <is>
           <t>1983M08</t>
         </is>
       </c>
-      <c r="KD1" t="inlineStr">
+      <c r="ALY1" t="inlineStr">
         <is>
           <t>1983M09</t>
         </is>
       </c>
-      <c r="KE1" t="inlineStr">
-        <is>
-          <t>1983M10</t>
-        </is>
-      </c>
-      <c r="KF1" t="inlineStr">
-        <is>
-          <t>1983M11</t>
-        </is>
-      </c>
-      <c r="KG1" t="inlineStr">
-        <is>
-          <t>1983M12</t>
-        </is>
-      </c>
-      <c r="KH1" t="inlineStr">
+      <c r="ALZ1" t="inlineStr">
         <is>
           <t>1984M01</t>
         </is>
       </c>
-      <c r="KI1" t="inlineStr">
+      <c r="AMA1" t="inlineStr">
         <is>
           <t>1984M02</t>
         </is>
       </c>
-      <c r="KJ1" t="inlineStr">
+      <c r="AMB1" t="inlineStr">
         <is>
           <t>1984M03</t>
         </is>
       </c>
-      <c r="KK1" t="inlineStr">
+      <c r="AMC1" t="inlineStr">
         <is>
           <t>1984M04</t>
         </is>
       </c>
-      <c r="KL1" t="inlineStr">
+      <c r="AMD1" t="inlineStr">
         <is>
           <t>1984M05</t>
         </is>
       </c>
-      <c r="KM1" t="inlineStr">
+      <c r="AME1" t="inlineStr">
         <is>
           <t>1984M06</t>
         </is>
       </c>
-      <c r="KN1" t="inlineStr">
+      <c r="AMF1" t="inlineStr">
         <is>
           <t>1984M07</t>
         </is>
       </c>
-      <c r="KO1" t="inlineStr">
+      <c r="AMG1" t="inlineStr">
         <is>
           <t>1984M08</t>
         </is>
       </c>
-      <c r="KP1" t="inlineStr">
+      <c r="AMH1" t="inlineStr">
         <is>
           <t>1984M09</t>
         </is>
       </c>
-      <c r="KQ1" t="inlineStr">
-        <is>
-          <t>1984M10</t>
-        </is>
-      </c>
-      <c r="KR1" t="inlineStr">
-        <is>
-          <t>1984M11</t>
-        </is>
-      </c>
-      <c r="KS1" t="inlineStr">
-        <is>
-          <t>1984M12</t>
-        </is>
-      </c>
-      <c r="KT1" t="inlineStr">
+      <c r="AMI1" t="inlineStr">
         <is>
           <t>1985M01</t>
         </is>
       </c>
-      <c r="KU1" t="inlineStr">
+      <c r="AMJ1" t="inlineStr">
         <is>
           <t>1985M02</t>
         </is>
       </c>
-      <c r="KV1" t="inlineStr">
+      <c r="AMK1" t="inlineStr">
         <is>
           <t>1985M03</t>
         </is>
       </c>
-      <c r="KW1" t="inlineStr">
+      <c r="AML1" t="inlineStr">
         <is>
           <t>1985M04</t>
         </is>
       </c>
-      <c r="KX1" t="inlineStr">
+      <c r="AMM1" t="inlineStr">
         <is>
           <t>1985M05</t>
         </is>
       </c>
-      <c r="KY1" t="inlineStr">
+      <c r="AMN1" t="inlineStr">
         <is>
           <t>1985M06</t>
         </is>
       </c>
-      <c r="KZ1" t="inlineStr">
+      <c r="AMO1" t="inlineStr">
         <is>
           <t>1985M07</t>
         </is>
       </c>
-      <c r="LA1" t="inlineStr">
+      <c r="AMP1" t="inlineStr">
         <is>
           <t>1985M08</t>
         </is>
       </c>
-      <c r="LB1" t="inlineStr">
+      <c r="AMQ1" t="inlineStr">
         <is>
           <t>1985M09</t>
         </is>
       </c>
-      <c r="LC1" t="inlineStr">
-        <is>
-          <t>1985M10</t>
-        </is>
-      </c>
-      <c r="LD1" t="inlineStr">
-        <is>
-          <t>1985M11</t>
-        </is>
-      </c>
-      <c r="LE1" t="inlineStr">
-        <is>
-          <t>1985M12</t>
-        </is>
-      </c>
-      <c r="LF1" t="inlineStr">
+      <c r="AMR1" t="inlineStr">
         <is>
           <t>1986M01</t>
         </is>
       </c>
-      <c r="LG1" t="inlineStr">
+      <c r="AMS1" t="inlineStr">
         <is>
           <t>1986M02</t>
         </is>
       </c>
-      <c r="LH1" t="inlineStr">
+      <c r="AMT1" t="inlineStr">
         <is>
           <t>1986M03</t>
         </is>
       </c>
-      <c r="LI1" t="inlineStr">
+      <c r="AMU1" t="inlineStr">
         <is>
           <t>1986M04</t>
         </is>
       </c>
-      <c r="LJ1" t="inlineStr">
+      <c r="AMV1" t="inlineStr">
         <is>
           <t>1986M05</t>
         </is>
       </c>
-      <c r="LK1" t="inlineStr">
+      <c r="AMW1" t="inlineStr">
         <is>
           <t>1986M06</t>
         </is>
       </c>
-      <c r="LL1" t="inlineStr">
+      <c r="AMX1" t="inlineStr">
         <is>
           <t>1986M07</t>
         </is>
       </c>
-      <c r="LM1" t="inlineStr">
+      <c r="AMY1" t="inlineStr">
         <is>
           <t>1986M08</t>
         </is>
       </c>
-      <c r="LN1" t="inlineStr">
+      <c r="AMZ1" t="inlineStr">
         <is>
           <t>1986M09</t>
         </is>
       </c>
-      <c r="LO1" t="inlineStr">
-        <is>
-          <t>1986M10</t>
-        </is>
-      </c>
-      <c r="LP1" t="inlineStr">
-        <is>
-          <t>1986M11</t>
-        </is>
-      </c>
-      <c r="LQ1" t="inlineStr">
-        <is>
-          <t>1986M12</t>
-        </is>
-      </c>
-      <c r="LR1" t="inlineStr">
+      <c r="ANA1" t="inlineStr">
         <is>
           <t>1987M01</t>
         </is>
       </c>
-      <c r="LS1" t="inlineStr">
+      <c r="ANB1" t="inlineStr">
         <is>
           <t>1987M02</t>
         </is>
       </c>
-      <c r="LT1" t="inlineStr">
+      <c r="ANC1" t="inlineStr">
         <is>
           <t>1987M03</t>
         </is>
       </c>
-      <c r="LU1" t="inlineStr">
+      <c r="AND1" t="inlineStr">
         <is>
           <t>1987M04</t>
         </is>
       </c>
-      <c r="LV1" t="inlineStr">
+      <c r="ANE1" t="inlineStr">
         <is>
           <t>1987M05</t>
         </is>
       </c>
-      <c r="LW1" t="inlineStr">
+      <c r="ANF1" t="inlineStr">
         <is>
           <t>1987M06</t>
         </is>
       </c>
-      <c r="LX1" t="inlineStr">
+      <c r="ANG1" t="inlineStr">
         <is>
           <t>1987M07</t>
         </is>
       </c>
-      <c r="LY1" t="inlineStr">
+      <c r="ANH1" t="inlineStr">
         <is>
           <t>1987M08</t>
         </is>
       </c>
-      <c r="LZ1" t="inlineStr">
+      <c r="ANI1" t="inlineStr">
         <is>
           <t>1987M09</t>
         </is>
       </c>
-      <c r="MA1" t="inlineStr">
-        <is>
-          <t>1987M10</t>
-        </is>
-      </c>
-      <c r="MB1" t="inlineStr">
-        <is>
-          <t>1987M11</t>
-        </is>
-      </c>
-      <c r="MC1" t="inlineStr">
-        <is>
-          <t>1987M12</t>
-        </is>
-      </c>
-      <c r="MD1" t="inlineStr">
+      <c r="ANJ1" t="inlineStr">
         <is>
           <t>1988M01</t>
         </is>
       </c>
-      <c r="ME1" t="inlineStr">
+      <c r="ANK1" t="inlineStr">
         <is>
           <t>1988M02</t>
         </is>
       </c>
-      <c r="MF1" t="inlineStr">
+      <c r="ANL1" t="inlineStr">
         <is>
           <t>1988M03</t>
         </is>
       </c>
-      <c r="MG1" t="inlineStr">
+      <c r="ANM1" t="inlineStr">
         <is>
           <t>1988M04</t>
         </is>
       </c>
-      <c r="MH1" t="inlineStr">
+      <c r="ANN1" t="inlineStr">
         <is>
           <t>1988M05</t>
         </is>
       </c>
-      <c r="MI1" t="inlineStr">
+      <c r="ANO1" t="inlineStr">
         <is>
           <t>1988M06</t>
         </is>
       </c>
-      <c r="MJ1" t="inlineStr">
+      <c r="ANP1" t="inlineStr">
         <is>
           <t>1988M07</t>
         </is>
       </c>
-      <c r="MK1" t="inlineStr">
+      <c r="ANQ1" t="inlineStr">
         <is>
           <t>1988M08</t>
         </is>
       </c>
-      <c r="ML1" t="inlineStr">
+      <c r="ANR1" t="inlineStr">
         <is>
           <t>1988M09</t>
         </is>
       </c>
-      <c r="MM1" t="inlineStr">
-        <is>
-          <t>1988M10</t>
-        </is>
-      </c>
-      <c r="MN1" t="inlineStr">
-        <is>
-          <t>1988M11</t>
-        </is>
-      </c>
-      <c r="MO1" t="inlineStr">
-        <is>
-          <t>1988M12</t>
-        </is>
-      </c>
-      <c r="MP1" t="inlineStr">
+      <c r="ANS1" t="inlineStr">
         <is>
           <t>1989M01</t>
         </is>
       </c>
-      <c r="MQ1" t="inlineStr">
+      <c r="ANT1" t="inlineStr">
         <is>
           <t>1989M02</t>
         </is>
       </c>
-      <c r="MR1" t="inlineStr">
+      <c r="ANU1" t="inlineStr">
         <is>
           <t>1989M03</t>
         </is>
       </c>
-      <c r="MS1" t="inlineStr">
+      <c r="ANV1" t="inlineStr">
         <is>
           <t>1989M04</t>
         </is>
       </c>
-      <c r="MT1" t="inlineStr">
+      <c r="ANW1" t="inlineStr">
         <is>
           <t>1989M05</t>
         </is>
       </c>
-      <c r="MU1" t="inlineStr">
+      <c r="ANX1" t="inlineStr">
         <is>
           <t>1989M06</t>
         </is>
       </c>
-      <c r="MV1" t="inlineStr">
+      <c r="ANY1" t="inlineStr">
         <is>
           <t>1989M07</t>
         </is>
       </c>
-      <c r="MW1" t="inlineStr">
+      <c r="ANZ1" t="inlineStr">
         <is>
           <t>1989M08</t>
         </is>
       </c>
-      <c r="MX1" t="inlineStr">
+      <c r="AOA1" t="inlineStr">
         <is>
           <t>1989M09</t>
         </is>
       </c>
-      <c r="MY1" t="inlineStr">
-        <is>
-          <t>1989M10</t>
-        </is>
-      </c>
-      <c r="MZ1" t="inlineStr">
-        <is>
-          <t>1989M11</t>
-        </is>
-      </c>
-      <c r="NA1" t="inlineStr">
-        <is>
-          <t>1989M12</t>
-        </is>
-      </c>
-      <c r="NB1" t="inlineStr">
+      <c r="AOB1" t="inlineStr">
         <is>
           <t>1990M01</t>
         </is>
       </c>
-      <c r="NC1" t="inlineStr">
+      <c r="AOC1" t="inlineStr">
         <is>
           <t>1990M02</t>
         </is>
       </c>
-      <c r="ND1" t="inlineStr">
+      <c r="AOD1" t="inlineStr">
         <is>
           <t>1990M03</t>
         </is>
       </c>
-      <c r="NE1" t="inlineStr">
+      <c r="AOE1" t="inlineStr">
         <is>
           <t>1990M04</t>
         </is>
       </c>
-      <c r="NF1" t="inlineStr">
+      <c r="AOF1" t="inlineStr">
         <is>
           <t>1990M05</t>
         </is>
       </c>
-      <c r="NG1" t="inlineStr">
+      <c r="AOG1" t="inlineStr">
         <is>
           <t>1990M06</t>
         </is>
       </c>
-      <c r="NH1" t="inlineStr">
+      <c r="AOH1" t="inlineStr">
         <is>
           <t>1990M07</t>
         </is>
       </c>
-      <c r="NI1" t="inlineStr">
+      <c r="AOI1" t="inlineStr">
         <is>
           <t>1990M08</t>
         </is>
       </c>
-      <c r="NJ1" t="inlineStr">
+      <c r="AOJ1" t="inlineStr">
         <is>
           <t>1990M09</t>
         </is>
       </c>
-      <c r="NK1" t="inlineStr">
-        <is>
-          <t>1990M10</t>
-        </is>
-      </c>
-      <c r="NL1" t="inlineStr">
-        <is>
-          <t>1990M11</t>
-        </is>
-      </c>
-      <c r="NM1" t="inlineStr">
-        <is>
-          <t>1990M12</t>
-        </is>
-      </c>
-      <c r="NN1" t="inlineStr">
+      <c r="AOK1" t="inlineStr">
         <is>
           <t>1991M01</t>
         </is>
       </c>
-      <c r="NO1" t="inlineStr">
+      <c r="AOL1" t="inlineStr">
         <is>
           <t>1991M02</t>
         </is>
       </c>
-      <c r="NP1" t="inlineStr">
+      <c r="AOM1" t="inlineStr">
         <is>
           <t>1991M03</t>
         </is>
       </c>
-      <c r="NQ1" t="inlineStr">
+      <c r="AON1" t="inlineStr">
         <is>
           <t>1991M04</t>
         </is>
       </c>
-      <c r="NR1" t="inlineStr">
+      <c r="AOO1" t="inlineStr">
         <is>
           <t>1991M05</t>
         </is>
       </c>
-      <c r="NS1" t="inlineStr">
+      <c r="AOP1" t="inlineStr">
         <is>
           <t>1991M06</t>
         </is>
       </c>
-      <c r="NT1" t="inlineStr">
+      <c r="AOQ1" t="inlineStr">
         <is>
           <t>1991M07</t>
         </is>
       </c>
-      <c r="NU1" t="inlineStr">
+      <c r="AOR1" t="inlineStr">
         <is>
           <t>1991M08</t>
         </is>
       </c>
-      <c r="NV1" t="inlineStr">
+      <c r="AOS1" t="inlineStr">
         <is>
           <t>1991M09</t>
         </is>
       </c>
-      <c r="NW1" t="inlineStr">
-        <is>
-          <t>1991M10</t>
-        </is>
-      </c>
-      <c r="NX1" t="inlineStr">
-        <is>
-          <t>1991M11</t>
-        </is>
-      </c>
-      <c r="NY1" t="inlineStr">
-        <is>
-          <t>1991M12</t>
-        </is>
-      </c>
-      <c r="NZ1" t="inlineStr">
+      <c r="AOT1" t="inlineStr">
         <is>
           <t>1992M01</t>
         </is>
       </c>
-      <c r="OA1" t="inlineStr">
+      <c r="AOU1" t="inlineStr">
         <is>
           <t>1992M02</t>
         </is>
       </c>
-      <c r="OB1" t="inlineStr">
+      <c r="AOV1" t="inlineStr">
         <is>
           <t>1992M03</t>
         </is>
       </c>
-      <c r="OC1" t="inlineStr">
+      <c r="AOW1" t="inlineStr">
         <is>
           <t>1992M04</t>
         </is>
       </c>
-      <c r="OD1" t="inlineStr">
+      <c r="AOX1" t="inlineStr">
         <is>
           <t>1992M05</t>
         </is>
       </c>
-      <c r="OE1" t="inlineStr">
+      <c r="AOY1" t="inlineStr">
         <is>
           <t>1992M06</t>
         </is>
       </c>
-      <c r="OF1" t="inlineStr">
+      <c r="AOZ1" t="inlineStr">
         <is>
           <t>1992M07</t>
         </is>
       </c>
-      <c r="OG1" t="inlineStr">
+      <c r="APA1" t="inlineStr">
         <is>
           <t>1992M08</t>
         </is>
       </c>
-      <c r="OH1" t="inlineStr">
+      <c r="APB1" t="inlineStr">
         <is>
           <t>1992M09</t>
         </is>
       </c>
-      <c r="OI1" t="inlineStr">
-        <is>
-          <t>1992M10</t>
-        </is>
-      </c>
-      <c r="OJ1" t="inlineStr">
-        <is>
-          <t>1992M11</t>
-        </is>
-      </c>
-      <c r="OK1" t="inlineStr">
-        <is>
-          <t>1992M12</t>
-        </is>
-      </c>
-      <c r="OL1" t="inlineStr">
+      <c r="APC1" t="inlineStr">
         <is>
           <t>1993M01</t>
         </is>
       </c>
-      <c r="OM1" t="inlineStr">
+      <c r="APD1" t="inlineStr">
         <is>
           <t>1993M02</t>
         </is>
       </c>
-      <c r="ON1" t="inlineStr">
+      <c r="APE1" t="inlineStr">
         <is>
           <t>1993M03</t>
         </is>
       </c>
-      <c r="OO1" t="inlineStr">
+      <c r="APF1" t="inlineStr">
         <is>
           <t>1993M04</t>
         </is>
       </c>
-      <c r="OP1" t="inlineStr">
+      <c r="APG1" t="inlineStr">
         <is>
           <t>1993M05</t>
         </is>
       </c>
-      <c r="OQ1" t="inlineStr">
+      <c r="APH1" t="inlineStr">
         <is>
           <t>1993M06</t>
         </is>
       </c>
-      <c r="OR1" t="inlineStr">
+      <c r="API1" t="inlineStr">
         <is>
           <t>1993M07</t>
         </is>
       </c>
-      <c r="OS1" t="inlineStr">
+      <c r="APJ1" t="inlineStr">
         <is>
           <t>1993M08</t>
         </is>
       </c>
-      <c r="OT1" t="inlineStr">
+      <c r="APK1" t="inlineStr">
         <is>
           <t>1993M09</t>
         </is>
       </c>
-      <c r="OU1" t="inlineStr">
-        <is>
-          <t>1993M10</t>
-        </is>
-      </c>
-      <c r="OV1" t="inlineStr">
-        <is>
-          <t>1993M11</t>
-        </is>
-      </c>
-      <c r="OW1" t="inlineStr">
-        <is>
-          <t>1993M12</t>
-        </is>
-      </c>
-      <c r="OX1" t="inlineStr">
+      <c r="APL1" t="inlineStr">
         <is>
           <t>1994M01</t>
         </is>
       </c>
-      <c r="OY1" t="inlineStr">
+      <c r="APM1" t="inlineStr">
         <is>
           <t>1994M02</t>
         </is>
       </c>
-      <c r="OZ1" t="inlineStr">
+      <c r="APN1" t="inlineStr">
         <is>
           <t>1994M03</t>
         </is>
       </c>
-      <c r="PA1" t="inlineStr">
+      <c r="APO1" t="inlineStr">
         <is>
           <t>1994M04</t>
         </is>
       </c>
-      <c r="PB1" t="inlineStr">
+      <c r="APP1" t="inlineStr">
         <is>
           <t>1994M05</t>
         </is>
       </c>
-      <c r="PC1" t="inlineStr">
+      <c r="APQ1" t="inlineStr">
         <is>
           <t>1994M06</t>
         </is>
       </c>
-      <c r="PD1" t="inlineStr">
+      <c r="APR1" t="inlineStr">
         <is>
           <t>1994M07</t>
         </is>
       </c>
-      <c r="PE1" t="inlineStr">
+      <c r="APS1" t="inlineStr">
         <is>
           <t>1994M08</t>
         </is>
       </c>
-      <c r="PF1" t="inlineStr">
+      <c r="APT1" t="inlineStr">
         <is>
           <t>1994M09</t>
         </is>
       </c>
-      <c r="PG1" t="inlineStr">
-        <is>
-          <t>1994M10</t>
-        </is>
-      </c>
-      <c r="PH1" t="inlineStr">
-        <is>
-          <t>1994M11</t>
-        </is>
-      </c>
-      <c r="PI1" t="inlineStr">
-        <is>
-          <t>1994M12</t>
-        </is>
-      </c>
-      <c r="PJ1" t="inlineStr">
+      <c r="APU1" t="inlineStr">
         <is>
           <t>1995M01</t>
         </is>
       </c>
-      <c r="PK1" t="inlineStr">
+      <c r="APV1" t="inlineStr">
         <is>
           <t>1995M02</t>
         </is>
       </c>
-      <c r="PL1" t="inlineStr">
+      <c r="APW1" t="inlineStr">
         <is>
           <t>1995M03</t>
         </is>
       </c>
-      <c r="PM1" t="inlineStr">
+      <c r="APX1" t="inlineStr">
         <is>
           <t>1995M04</t>
         </is>
       </c>
-      <c r="PN1" t="inlineStr">
+      <c r="APY1" t="inlineStr">
         <is>
           <t>1995M05</t>
         </is>
       </c>
-      <c r="PO1" t="inlineStr">
+      <c r="APZ1" t="inlineStr">
         <is>
           <t>1995M06</t>
         </is>
       </c>
-      <c r="PP1" t="inlineStr">
+      <c r="AQA1" t="inlineStr">
         <is>
           <t>1995M07</t>
         </is>
       </c>
-      <c r="PQ1" t="inlineStr">
+      <c r="AQB1" t="inlineStr">
         <is>
           <t>1995M08</t>
         </is>
       </c>
-      <c r="PR1" t="inlineStr">
+      <c r="AQC1" t="inlineStr">
         <is>
           <t>1995M09</t>
         </is>
       </c>
-      <c r="PS1" t="inlineStr">
-        <is>
-          <t>1995M10</t>
-        </is>
-      </c>
-      <c r="PT1" t="inlineStr">
-        <is>
-          <t>1995M11</t>
-        </is>
-      </c>
-      <c r="PU1" t="inlineStr">
-        <is>
-          <t>1995M12</t>
-        </is>
-      </c>
-      <c r="PV1" t="inlineStr">
+      <c r="AQD1" t="inlineStr">
         <is>
           <t>1996M01</t>
         </is>
       </c>
-      <c r="PW1" t="inlineStr">
+      <c r="AQE1" t="inlineStr">
         <is>
           <t>1996M02</t>
         </is>
       </c>
-      <c r="PX1" t="inlineStr">
+      <c r="AQF1" t="inlineStr">
         <is>
           <t>1996M03</t>
         </is>
       </c>
-      <c r="PY1" t="inlineStr">
+      <c r="AQG1" t="inlineStr">
         <is>
           <t>1996M04</t>
         </is>
       </c>
-      <c r="PZ1" t="inlineStr">
+      <c r="AQH1" t="inlineStr">
         <is>
           <t>1996M05</t>
         </is>
       </c>
-      <c r="QA1" t="inlineStr">
+      <c r="AQI1" t="inlineStr">
         <is>
           <t>1996M06</t>
         </is>
       </c>
-      <c r="QB1" t="inlineStr">
+      <c r="AQJ1" t="inlineStr">
         <is>
           <t>1996M07</t>
         </is>
       </c>
-      <c r="QC1" t="inlineStr">
+      <c r="AQK1" t="inlineStr">
         <is>
           <t>1996M08</t>
         </is>
       </c>
-      <c r="QD1" t="inlineStr">
+      <c r="AQL1" t="inlineStr">
         <is>
           <t>1996M09</t>
         </is>
       </c>
-      <c r="QE1" t="inlineStr">
-        <is>
-          <t>1996M10</t>
-        </is>
-      </c>
-      <c r="QF1" t="inlineStr">
-        <is>
-          <t>1996M11</t>
-        </is>
-      </c>
-      <c r="QG1" t="inlineStr">
-        <is>
-          <t>1996M12</t>
-        </is>
-      </c>
-      <c r="QH1" t="inlineStr">
+      <c r="AQM1" t="inlineStr">
         <is>
           <t>1997M01</t>
         </is>
       </c>
-      <c r="QI1" t="inlineStr">
+      <c r="AQN1" t="inlineStr">
         <is>
           <t>1997M02</t>
         </is>
       </c>
-      <c r="QJ1" t="inlineStr">
+      <c r="AQO1" t="inlineStr">
         <is>
           <t>1997M03</t>
         </is>
       </c>
-      <c r="QK1" t="inlineStr">
+      <c r="AQP1" t="inlineStr">
         <is>
           <t>1997M04</t>
         </is>
       </c>
-      <c r="QL1" t="inlineStr">
+      <c r="AQQ1" t="inlineStr">
         <is>
           <t>1997M05</t>
         </is>
       </c>
-      <c r="QM1" t="inlineStr">
+      <c r="AQR1" t="inlineStr">
         <is>
           <t>1997M06</t>
         </is>
       </c>
-      <c r="QN1" t="inlineStr">
+      <c r="AQS1" t="inlineStr">
         <is>
           <t>1997M07</t>
         </is>
       </c>
-      <c r="QO1" t="inlineStr">
+      <c r="AQT1" t="inlineStr">
         <is>
           <t>1997M08</t>
         </is>
       </c>
-      <c r="QP1" t="inlineStr">
+      <c r="AQU1" t="inlineStr">
         <is>
           <t>1997M09</t>
         </is>
       </c>
-      <c r="QQ1" t="inlineStr">
-        <is>
-          <t>1997M10</t>
-        </is>
-      </c>
-      <c r="QR1" t="inlineStr">
-        <is>
-          <t>1997M11</t>
-        </is>
-      </c>
-      <c r="QS1" t="inlineStr">
-        <is>
-          <t>1997M12</t>
-        </is>
-      </c>
-      <c r="QT1" t="inlineStr">
+      <c r="AQV1" t="inlineStr">
         <is>
           <t>1998M01</t>
         </is>
       </c>
-      <c r="QU1" t="inlineStr">
+      <c r="AQW1" t="inlineStr">
         <is>
           <t>1998M02</t>
         </is>
       </c>
-      <c r="QV1" t="inlineStr">
+      <c r="AQX1" t="inlineStr">
         <is>
           <t>1998M03</t>
         </is>
       </c>
-      <c r="QW1" t="inlineStr">
+      <c r="AQY1" t="inlineStr">
         <is>
           <t>1998M04</t>
         </is>
       </c>
-      <c r="QX1" t="inlineStr">
+      <c r="AQZ1" t="inlineStr">
         <is>
           <t>1998M05</t>
         </is>
       </c>
-      <c r="QY1" t="inlineStr">
+      <c r="ARA1" t="inlineStr">
         <is>
           <t>1998M06</t>
         </is>
       </c>
-      <c r="QZ1" t="inlineStr">
+      <c r="ARB1" t="inlineStr">
         <is>
           <t>1998M07</t>
         </is>
       </c>
-      <c r="RA1" t="inlineStr">
+      <c r="ARC1" t="inlineStr">
         <is>
           <t>1998M08</t>
         </is>
       </c>
-      <c r="RB1" t="inlineStr">
+      <c r="ARD1" t="inlineStr">
         <is>
           <t>1998M09</t>
         </is>
       </c>
-      <c r="RC1" t="inlineStr">
-        <is>
-          <t>1998M10</t>
-        </is>
-      </c>
-      <c r="RD1" t="inlineStr">
-        <is>
-          <t>1998M11</t>
-        </is>
-      </c>
-      <c r="RE1" t="inlineStr">
-        <is>
-          <t>1998M12</t>
-        </is>
-      </c>
-      <c r="RF1" t="inlineStr">
+      <c r="ARE1" t="inlineStr">
         <is>
           <t>1999M01</t>
         </is>
       </c>
-      <c r="RG1" t="inlineStr">
+      <c r="ARF1" t="inlineStr">
         <is>
           <t>1999M02</t>
         </is>
       </c>
-      <c r="RH1" t="inlineStr">
+      <c r="ARG1" t="inlineStr">
         <is>
           <t>1999M03</t>
         </is>
       </c>
-      <c r="RI1" t="inlineStr">
+      <c r="ARH1" t="inlineStr">
         <is>
           <t>1999M04</t>
         </is>
       </c>
-      <c r="RJ1" t="inlineStr">
+      <c r="ARI1" t="inlineStr">
         <is>
           <t>1999M05</t>
         </is>
       </c>
-      <c r="RK1" t="inlineStr">
+      <c r="ARJ1" t="inlineStr">
         <is>
           <t>1999M06</t>
         </is>
       </c>
-      <c r="RL1" t="inlineStr">
+      <c r="ARK1" t="inlineStr">
         <is>
           <t>1999M07</t>
         </is>
       </c>
-      <c r="RM1" t="inlineStr">
+      <c r="ARL1" t="inlineStr">
         <is>
           <t>1999M08</t>
         </is>
       </c>
-      <c r="RN1" t="inlineStr">
+      <c r="ARM1" t="inlineStr">
         <is>
           <t>1999M09</t>
         </is>
       </c>
-      <c r="RO1" t="inlineStr">
-        <is>
-          <t>1999M10</t>
-        </is>
-      </c>
-      <c r="RP1" t="inlineStr">
-        <is>
-          <t>1999M11</t>
-        </is>
-      </c>
-      <c r="RQ1" t="inlineStr">
-        <is>
-          <t>1999M12</t>
-        </is>
-      </c>
-      <c r="RR1" t="inlineStr">
+      <c r="ARN1" t="inlineStr">
         <is>
           <t>2000M01</t>
         </is>
       </c>
-      <c r="RS1" t="inlineStr">
+      <c r="ARO1" t="inlineStr">
         <is>
           <t>2000M02</t>
         </is>
       </c>
-      <c r="RT1" t="inlineStr">
+      <c r="ARP1" t="inlineStr">
         <is>
           <t>2000M03</t>
         </is>
       </c>
-      <c r="RU1" t="inlineStr">
+      <c r="ARQ1" t="inlineStr">
         <is>
           <t>2000M04</t>
         </is>
       </c>
-      <c r="RV1" t="inlineStr">
+      <c r="ARR1" t="inlineStr">
         <is>
           <t>2000M05</t>
         </is>
       </c>
-      <c r="RW1" t="inlineStr">
+      <c r="ARS1" t="inlineStr">
         <is>
           <t>2000M06</t>
         </is>
       </c>
-      <c r="RX1" t="inlineStr">
+      <c r="ART1" t="inlineStr">
         <is>
           <t>2000M07</t>
         </is>
       </c>
-      <c r="RY1" t="inlineStr">
+      <c r="ARU1" t="inlineStr">
         <is>
           <t>2000M08</t>
         </is>
       </c>
-      <c r="RZ1" t="inlineStr">
+      <c r="ARV1" t="inlineStr">
         <is>
           <t>2000M09</t>
         </is>
       </c>
-      <c r="SA1" t="inlineStr">
-        <is>
-          <t>2000M10</t>
-        </is>
-      </c>
-      <c r="SB1" t="inlineStr">
-        <is>
-          <t>2000M11</t>
-        </is>
-      </c>
-      <c r="SC1" t="inlineStr">
-        <is>
-          <t>2000M12</t>
-        </is>
-      </c>
-      <c r="SD1" t="inlineStr">
+      <c r="ARW1" t="inlineStr">
         <is>
           <t>2001M01</t>
         </is>
       </c>
-      <c r="SE1" t="inlineStr">
+      <c r="ARX1" t="inlineStr">
         <is>
           <t>2001M02</t>
         </is>
       </c>
-      <c r="SF1" t="inlineStr">
+      <c r="ARY1" t="inlineStr">
         <is>
           <t>2001M03</t>
         </is>
       </c>
-      <c r="SG1" t="inlineStr">
+      <c r="ARZ1" t="inlineStr">
         <is>
           <t>2001M04</t>
         </is>
       </c>
-      <c r="SH1" t="inlineStr">
+      <c r="ASA1" t="inlineStr">
         <is>
           <t>2001M05</t>
         </is>
       </c>
-      <c r="SI1" t="inlineStr">
+      <c r="ASB1" t="inlineStr">
         <is>
           <t>2001M06</t>
         </is>
       </c>
-      <c r="SJ1" t="inlineStr">
+      <c r="ASC1" t="inlineStr">
         <is>
           <t>2001M07</t>
         </is>
       </c>
-      <c r="SK1" t="inlineStr">
+      <c r="ASD1" t="inlineStr">
         <is>
           <t>2001M08</t>
         </is>
       </c>
-      <c r="SL1" t="inlineStr">
+      <c r="ASE1" t="inlineStr">
         <is>
           <t>2001M09</t>
         </is>
       </c>
-      <c r="SM1" t="inlineStr">
-        <is>
-          <t>2001M10</t>
-        </is>
-      </c>
-      <c r="SN1" t="inlineStr">
-        <is>
-          <t>2001M11</t>
-        </is>
-      </c>
-      <c r="SO1" t="inlineStr">
-        <is>
-          <t>2001M12</t>
-        </is>
-      </c>
-      <c r="SP1" t="inlineStr">
+      <c r="ASF1" t="inlineStr">
         <is>
           <t>2002M01</t>
         </is>
       </c>
-      <c r="SQ1" t="inlineStr">
+      <c r="ASG1" t="inlineStr">
         <is>
           <t>2002M02</t>
         </is>
       </c>
-      <c r="SR1" t="inlineStr">
+      <c r="ASH1" t="inlineStr">
         <is>
           <t>2002M03</t>
         </is>
       </c>
-      <c r="SS1" t="inlineStr">
+      <c r="ASI1" t="inlineStr">
         <is>
           <t>2002M04</t>
         </is>
       </c>
-      <c r="ST1" t="inlineStr">
+      <c r="ASJ1" t="inlineStr">
         <is>
           <t>2002M05</t>
         </is>
       </c>
-      <c r="SU1" t="inlineStr">
+      <c r="ASK1" t="inlineStr">
         <is>
           <t>2002M06</t>
         </is>
       </c>
-      <c r="SV1" t="inlineStr">
+      <c r="ASL1" t="inlineStr">
         <is>
           <t>2002M07</t>
         </is>
       </c>
-      <c r="SW1" t="inlineStr">
+      <c r="ASM1" t="inlineStr">
         <is>
           <t>2002M08</t>
         </is>
       </c>
-      <c r="SX1" t="inlineStr">
+      <c r="ASN1" t="inlineStr">
         <is>
           <t>2002M09</t>
         </is>
       </c>
-      <c r="SY1" t="inlineStr">
-        <is>
-          <t>2002M10</t>
-        </is>
-      </c>
-      <c r="SZ1" t="inlineStr">
-        <is>
-          <t>2002M11</t>
-        </is>
-      </c>
-      <c r="TA1" t="inlineStr">
-        <is>
-          <t>2002M12</t>
-        </is>
-      </c>
-      <c r="TB1" t="inlineStr">
+      <c r="ASO1" t="inlineStr">
         <is>
           <t>2003M01</t>
         </is>
       </c>
-      <c r="TC1" t="inlineStr">
+      <c r="ASP1" t="inlineStr">
         <is>
           <t>2003M02</t>
         </is>
       </c>
-      <c r="TD1" t="inlineStr">
+      <c r="ASQ1" t="inlineStr">
         <is>
           <t>2003M03</t>
         </is>
       </c>
-      <c r="TE1" t="inlineStr">
+      <c r="ASR1" t="inlineStr">
         <is>
           <t>2003M04</t>
         </is>
       </c>
-      <c r="TF1" t="inlineStr">
+      <c r="ASS1" t="inlineStr">
         <is>
           <t>2003M05</t>
         </is>
       </c>
-      <c r="TG1" t="inlineStr">
+      <c r="AST1" t="inlineStr">
         <is>
           <t>2003M06</t>
         </is>
       </c>
-      <c r="TH1" t="inlineStr">
+      <c r="ASU1" t="inlineStr">
         <is>
           <t>2003M07</t>
         </is>
       </c>
-      <c r="TI1" t="inlineStr">
+      <c r="ASV1" t="inlineStr">
         <is>
           <t>2003M08</t>
         </is>
       </c>
-      <c r="TJ1" t="inlineStr">
+      <c r="ASW1" t="inlineStr">
         <is>
           <t>2003M09</t>
         </is>
       </c>
-      <c r="TK1" t="inlineStr">
-        <is>
-          <t>2003M10</t>
-        </is>
-      </c>
-      <c r="TL1" t="inlineStr">
-        <is>
-          <t>2003M11</t>
-        </is>
-      </c>
-      <c r="TM1" t="inlineStr">
-        <is>
-          <t>2003M12</t>
-        </is>
-      </c>
-      <c r="TN1" t="inlineStr">
+      <c r="ASX1" t="inlineStr">
         <is>
           <t>2004M01</t>
         </is>
       </c>
-      <c r="TO1" t="inlineStr">
+      <c r="ASY1" t="inlineStr">
         <is>
           <t>2004M02</t>
         </is>
       </c>
-      <c r="TP1" t="inlineStr">
+      <c r="ASZ1" t="inlineStr">
         <is>
           <t>2004M03</t>
         </is>
       </c>
-      <c r="TQ1" t="inlineStr">
+      <c r="ATA1" t="inlineStr">
         <is>
           <t>2004M04</t>
         </is>
       </c>
-      <c r="TR1" t="inlineStr">
+      <c r="ATB1" t="inlineStr">
         <is>
           <t>2004M05</t>
         </is>
       </c>
-      <c r="TS1" t="inlineStr">
+      <c r="ATC1" t="inlineStr">
         <is>
           <t>2004M06</t>
         </is>
       </c>
-      <c r="TT1" t="inlineStr">
+      <c r="ATD1" t="inlineStr">
         <is>
           <t>2004M07</t>
         </is>
       </c>
-      <c r="TU1" t="inlineStr">
+      <c r="ATE1" t="inlineStr">
         <is>
           <t>2004M08</t>
         </is>
       </c>
-      <c r="TV1" t="inlineStr">
+      <c r="ATF1" t="inlineStr">
         <is>
           <t>2004M09</t>
         </is>
       </c>
-      <c r="TW1" t="inlineStr">
-        <is>
-          <t>2004M10</t>
-        </is>
-      </c>
-      <c r="TX1" t="inlineStr">
-        <is>
-          <t>2004M11</t>
-        </is>
-      </c>
-      <c r="TY1" t="inlineStr">
-        <is>
-          <t>2004M12</t>
-        </is>
-      </c>
-      <c r="TZ1" t="inlineStr">
+      <c r="ATG1" t="inlineStr">
         <is>
           <t>2005M01</t>
         </is>
       </c>
-      <c r="UA1" t="inlineStr">
+      <c r="ATH1" t="inlineStr">
         <is>
           <t>2005M02</t>
         </is>
       </c>
-      <c r="UB1" t="inlineStr">
+      <c r="ATI1" t="inlineStr">
         <is>
           <t>2005M03</t>
         </is>
       </c>
-      <c r="UC1" t="inlineStr">
+      <c r="ATJ1" t="inlineStr">
         <is>
           <t>2005M04</t>
         </is>
       </c>
-      <c r="UD1" t="inlineStr">
+      <c r="ATK1" t="inlineStr">
         <is>
           <t>2005M05</t>
         </is>
       </c>
-      <c r="UE1" t="inlineStr">
+      <c r="ATL1" t="inlineStr">
         <is>
           <t>2005M06</t>
         </is>
       </c>
-      <c r="UF1" t="inlineStr">
+      <c r="ATM1" t="inlineStr">
         <is>
           <t>2005M07</t>
         </is>
       </c>
-      <c r="UG1" t="inlineStr">
+      <c r="ATN1" t="inlineStr">
         <is>
           <t>2005M08</t>
         </is>
       </c>
-      <c r="UH1" t="inlineStr">
+      <c r="ATO1" t="inlineStr">
         <is>
           <t>2005M09</t>
         </is>
       </c>
-      <c r="UI1" t="inlineStr">
-        <is>
-          <t>2005M10</t>
-        </is>
-      </c>
-      <c r="UJ1" t="inlineStr">
-        <is>
-          <t>2005M11</t>
-        </is>
-      </c>
-      <c r="UK1" t="inlineStr">
-        <is>
-          <t>2005M12</t>
-        </is>
-      </c>
-      <c r="UL1" t="inlineStr">
+      <c r="ATP1" t="inlineStr">
         <is>
           <t>2006M01</t>
         </is>
       </c>
-      <c r="UM1" t="inlineStr">
+      <c r="ATQ1" t="inlineStr">
         <is>
           <t>2006M02</t>
         </is>
       </c>
-      <c r="UN1" t="inlineStr">
+      <c r="ATR1" t="inlineStr">
         <is>
           <t>2006M03</t>
         </is>
       </c>
-      <c r="UO1" t="inlineStr">
+      <c r="ATS1" t="inlineStr">
         <is>
           <t>2006M04</t>
         </is>
       </c>
-      <c r="UP1" t="inlineStr">
+      <c r="ATT1" t="inlineStr">
         <is>
           <t>2006M05</t>
         </is>
       </c>
-      <c r="UQ1" t="inlineStr">
+      <c r="ATU1" t="inlineStr">
         <is>
           <t>2006M06</t>
         </is>
       </c>
-      <c r="UR1" t="inlineStr">
+      <c r="ATV1" t="inlineStr">
         <is>
           <t>2006M07</t>
         </is>
       </c>
-      <c r="US1" t="inlineStr">
+      <c r="ATW1" t="inlineStr">
         <is>
           <t>2006M08</t>
         </is>
       </c>
-      <c r="UT1" t="inlineStr">
+      <c r="ATX1" t="inlineStr">
         <is>
           <t>2006M09</t>
         </is>
       </c>
-      <c r="UU1" t="inlineStr">
-        <is>
-          <t>2006M10</t>
-        </is>
-      </c>
-      <c r="UV1" t="inlineStr">
-        <is>
-          <t>2006M11</t>
-        </is>
-      </c>
-      <c r="UW1" t="inlineStr">
-        <is>
-          <t>2006M12</t>
-        </is>
-      </c>
-      <c r="UX1" t="inlineStr">
+      <c r="ATY1" t="inlineStr">
         <is>
           <t>2007M01</t>
         </is>
       </c>
-      <c r="UY1" t="inlineStr">
+      <c r="ATZ1" t="inlineStr">
         <is>
           <t>2007M02</t>
         </is>
       </c>
-      <c r="UZ1" t="inlineStr">
+      <c r="AUA1" t="inlineStr">
         <is>
           <t>2007M03</t>
         </is>
       </c>
-      <c r="VA1" t="inlineStr">
+      <c r="AUB1" t="inlineStr">
         <is>
           <t>2007M04</t>
         </is>
       </c>
-      <c r="VB1" t="inlineStr">
+      <c r="AUC1" t="inlineStr">
         <is>
           <t>2007M05</t>
         </is>
       </c>
-      <c r="VC1" t="inlineStr">
+      <c r="AUD1" t="inlineStr">
         <is>
           <t>2007M06</t>
         </is>
       </c>
-      <c r="VD1" t="inlineStr">
+      <c r="AUE1" t="inlineStr">
         <is>
           <t>2007M07</t>
         </is>
       </c>
-      <c r="VE1" t="inlineStr">
+      <c r="AUF1" t="inlineStr">
         <is>
           <t>2007M08</t>
         </is>
       </c>
-      <c r="VF1" t="inlineStr">
+      <c r="AUG1" t="inlineStr">
         <is>
           <t>2007M09</t>
         </is>
       </c>
-      <c r="VG1" t="inlineStr">
-        <is>
-          <t>2007M10</t>
-        </is>
-      </c>
-      <c r="VH1" t="inlineStr">
-        <is>
-          <t>2007M11</t>
-        </is>
-      </c>
-      <c r="VI1" t="inlineStr">
-        <is>
-          <t>2007M12</t>
-        </is>
-      </c>
-      <c r="VJ1" t="inlineStr">
+      <c r="AUH1" t="inlineStr">
         <is>
           <t>2008M01</t>
         </is>
       </c>
-      <c r="VK1" t="inlineStr">
+      <c r="AUI1" t="inlineStr">
         <is>
           <t>2008M02</t>
         </is>
       </c>
-      <c r="VL1" t="inlineStr">
+      <c r="AUJ1" t="inlineStr">
         <is>
           <t>2008M03</t>
         </is>
       </c>
-      <c r="VM1" t="inlineStr">
+      <c r="AUK1" t="inlineStr">
         <is>
           <t>2008M04</t>
         </is>
       </c>
-      <c r="VN1" t="inlineStr">
+      <c r="AUL1" t="inlineStr">
         <is>
           <t>2008M05</t>
         </is>
       </c>
-      <c r="VO1" t="inlineStr">
+      <c r="AUM1" t="inlineStr">
         <is>
           <t>2008M06</t>
         </is>
       </c>
-      <c r="VP1" t="inlineStr">
+      <c r="AUN1" t="inlineStr">
         <is>
           <t>2008M07</t>
         </is>
       </c>
-      <c r="VQ1" t="inlineStr">
+      <c r="AUO1" t="inlineStr">
         <is>
           <t>2008M08</t>
         </is>
       </c>
-      <c r="VR1" t="inlineStr">
+      <c r="AUP1" t="inlineStr">
         <is>
           <t>2008M09</t>
         </is>
       </c>
-      <c r="VS1" t="inlineStr">
-        <is>
-          <t>2008M10</t>
-        </is>
-      </c>
-      <c r="VT1" t="inlineStr">
-        <is>
-          <t>2008M11</t>
-        </is>
-      </c>
-      <c r="VU1" t="inlineStr">
-        <is>
-          <t>2008M12</t>
-        </is>
-      </c>
-      <c r="VV1" t="inlineStr">
+      <c r="AUQ1" t="inlineStr">
         <is>
           <t>2009M01</t>
         </is>
       </c>
-      <c r="VW1" t="inlineStr">
+      <c r="AUR1" t="inlineStr">
         <is>
           <t>2009M02</t>
         </is>
       </c>
-      <c r="VX1" t="inlineStr">
+      <c r="AUS1" t="inlineStr">
         <is>
           <t>2009M03</t>
         </is>
       </c>
-      <c r="VY1" t="inlineStr">
+      <c r="AUT1" t="inlineStr">
         <is>
           <t>2009M04</t>
         </is>
       </c>
-      <c r="VZ1" t="inlineStr">
+      <c r="AUU1" t="inlineStr">
         <is>
           <t>2009M05</t>
         </is>
       </c>
-      <c r="WA1" t="inlineStr">
+      <c r="AUV1" t="inlineStr">
         <is>
           <t>2009M06</t>
         </is>
       </c>
-      <c r="WB1" t="inlineStr">
+      <c r="AUW1" t="inlineStr">
         <is>
           <t>2009M07</t>
         </is>
       </c>
-      <c r="WC1" t="inlineStr">
+      <c r="AUX1" t="inlineStr">
         <is>
           <t>2009M08</t>
         </is>
       </c>
-      <c r="WD1" t="inlineStr">
+      <c r="AUY1" t="inlineStr">
         <is>
           <t>2009M09</t>
         </is>
       </c>
-      <c r="WE1" t="inlineStr">
-        <is>
-          <t>2009M10</t>
-        </is>
-      </c>
-      <c r="WF1" t="inlineStr">
-        <is>
-          <t>2009M11</t>
-        </is>
-      </c>
-      <c r="WG1" t="inlineStr">
-        <is>
-          <t>2009M12</t>
-        </is>
-      </c>
-      <c r="WH1" t="inlineStr">
+      <c r="AUZ1" t="inlineStr">
         <is>
           <t>2010M01</t>
         </is>
       </c>
-      <c r="WI1" t="inlineStr">
+      <c r="AVA1" t="inlineStr">
         <is>
           <t>2010M02</t>
         </is>
       </c>
-      <c r="WJ1" t="inlineStr">
+      <c r="AVB1" t="inlineStr">
         <is>
           <t>2010M03</t>
         </is>
       </c>
-      <c r="WK1" t="inlineStr">
+      <c r="AVC1" t="inlineStr">
         <is>
           <t>2010M04</t>
         </is>
       </c>
-      <c r="WL1" t="inlineStr">
+      <c r="AVD1" t="inlineStr">
         <is>
           <t>2010M05</t>
         </is>
       </c>
-      <c r="WM1" t="inlineStr">
+      <c r="AVE1" t="inlineStr">
         <is>
           <t>2010M06</t>
         </is>
       </c>
-      <c r="WN1" t="inlineStr">
+      <c r="AVF1" t="inlineStr">
         <is>
           <t>2010M07</t>
         </is>
       </c>
-      <c r="WO1" t="inlineStr">
+      <c r="AVG1" t="inlineStr">
         <is>
           <t>2010M08</t>
         </is>
       </c>
-      <c r="WP1" t="inlineStr">
+      <c r="AVH1" t="inlineStr">
         <is>
           <t>2010M09</t>
         </is>
       </c>
-      <c r="WQ1" t="inlineStr">
-        <is>
-          <t>2010M10</t>
-        </is>
-      </c>
-      <c r="WR1" t="inlineStr">
-        <is>
-          <t>2010M11</t>
-        </is>
-      </c>
-      <c r="WS1" t="inlineStr">
-        <is>
-          <t>2010M12</t>
-        </is>
-      </c>
-      <c r="WT1" t="inlineStr">
+      <c r="AVI1" t="inlineStr">
         <is>
           <t>2011M01</t>
         </is>
       </c>
-      <c r="WU1" t="inlineStr">
+      <c r="AVJ1" t="inlineStr">
         <is>
           <t>2011M02</t>
         </is>
       </c>
-      <c r="WV1" t="inlineStr">
+      <c r="AVK1" t="inlineStr">
         <is>
           <t>2011M03</t>
         </is>
       </c>
-      <c r="WW1" t="inlineStr">
+      <c r="AVL1" t="inlineStr">
         <is>
           <t>2011M04</t>
         </is>
       </c>
-      <c r="WX1" t="inlineStr">
+      <c r="AVM1" t="inlineStr">
         <is>
           <t>2011M05</t>
         </is>
       </c>
-      <c r="WY1" t="inlineStr">
+      <c r="AVN1" t="inlineStr">
         <is>
           <t>2011M06</t>
         </is>
       </c>
-      <c r="WZ1" t="inlineStr">
+      <c r="AVO1" t="inlineStr">
         <is>
           <t>2011M07</t>
         </is>
       </c>
-      <c r="XA1" t="inlineStr">
+      <c r="AVP1" t="inlineStr">
         <is>
           <t>2011M08</t>
         </is>
       </c>
-      <c r="XB1" t="inlineStr">
+      <c r="AVQ1" t="inlineStr">
         <is>
           <t>2011M09</t>
         </is>
       </c>
-      <c r="XC1" t="inlineStr">
-        <is>
-          <t>2011M10</t>
-        </is>
-      </c>
-      <c r="XD1" t="inlineStr">
-        <is>
-          <t>2011M11</t>
-        </is>
-      </c>
-      <c r="XE1" t="inlineStr">
-        <is>
-          <t>2011M12</t>
-        </is>
-      </c>
-      <c r="XF1" t="inlineStr">
+      <c r="AVR1" t="inlineStr">
         <is>
           <t>2012M01</t>
         </is>
       </c>
-      <c r="XG1" t="inlineStr">
+      <c r="AVS1" t="inlineStr">
         <is>
           <t>2012M02</t>
         </is>
       </c>
-      <c r="XH1" t="inlineStr">
+      <c r="AVT1" t="inlineStr">
         <is>
           <t>2012M03</t>
         </is>
       </c>
-      <c r="XI1" t="inlineStr">
+      <c r="AVU1" t="inlineStr">
         <is>
           <t>2012M04</t>
         </is>
       </c>
-      <c r="XJ1" t="inlineStr">
+      <c r="AVV1" t="inlineStr">
         <is>
           <t>2012M05</t>
         </is>
       </c>
-      <c r="XK1" t="inlineStr">
+      <c r="AVW1" t="inlineStr">
         <is>
           <t>2012M06</t>
         </is>
       </c>
-      <c r="XL1" t="inlineStr">
+      <c r="AVX1" t="inlineStr">
         <is>
           <t>2012M07</t>
         </is>
       </c>
-      <c r="XM1" t="inlineStr">
+      <c r="AVY1" t="inlineStr">
         <is>
           <t>2012M08</t>
         </is>
       </c>
-      <c r="XN1" t="inlineStr">
+      <c r="AVZ1" t="inlineStr">
         <is>
           <t>2012M09</t>
         </is>
       </c>
-      <c r="XO1" t="inlineStr">
-        <is>
-          <t>2012M10</t>
-        </is>
-      </c>
-      <c r="XP1" t="inlineStr">
-        <is>
-          <t>2012M11</t>
-        </is>
-      </c>
-      <c r="XQ1" t="inlineStr">
-        <is>
-          <t>2012M12</t>
-        </is>
-      </c>
-      <c r="XR1" t="inlineStr">
+      <c r="AWA1" t="inlineStr">
         <is>
           <t>2013M01</t>
         </is>
       </c>
-      <c r="XS1" t="inlineStr">
+      <c r="AWB1" t="inlineStr">
         <is>
           <t>2013M02</t>
         </is>
       </c>
-      <c r="XT1" t="inlineStr">
+      <c r="AWC1" t="inlineStr">
         <is>
           <t>2013M03</t>
         </is>
       </c>
-      <c r="XU1" t="inlineStr">
+      <c r="AWD1" t="inlineStr">
         <is>
           <t>2013M04</t>
         </is>
       </c>
-      <c r="XV1" t="inlineStr">
+      <c r="AWE1" t="inlineStr">
         <is>
           <t>2013M05</t>
         </is>
       </c>
-      <c r="XW1" t="inlineStr">
+      <c r="AWF1" t="inlineStr">
         <is>
           <t>2013M06</t>
         </is>
       </c>
-      <c r="XX1" t="inlineStr">
+      <c r="AWG1" t="inlineStr">
         <is>
           <t>2013M07</t>
         </is>
       </c>
-      <c r="XY1" t="inlineStr">
+      <c r="AWH1" t="inlineStr">
         <is>
           <t>2013M08</t>
         </is>
       </c>
-      <c r="XZ1" t="inlineStr">
+      <c r="AWI1" t="inlineStr">
         <is>
           <t>2013M09</t>
         </is>
       </c>
-      <c r="YA1" t="inlineStr">
-        <is>
-          <t>2013M10</t>
-        </is>
-      </c>
-      <c r="YB1" t="inlineStr">
-        <is>
-          <t>2013M11</t>
-        </is>
-      </c>
-      <c r="YC1" t="inlineStr">
-        <is>
-          <t>2013M12</t>
-        </is>
-      </c>
-      <c r="YD1" t="inlineStr">
+      <c r="AWJ1" t="inlineStr">
         <is>
           <t>2014M01</t>
         </is>
       </c>
-      <c r="YE1" t="inlineStr">
+      <c r="AWK1" t="inlineStr">
         <is>
           <t>2014M02</t>
         </is>
       </c>
-      <c r="YF1" t="inlineStr">
+      <c r="AWL1" t="inlineStr">
         <is>
           <t>2014M03</t>
         </is>
       </c>
-      <c r="YG1" t="inlineStr">
+      <c r="AWM1" t="inlineStr">
         <is>
           <t>2014M04</t>
         </is>
       </c>
-      <c r="YH1" t="inlineStr">
+      <c r="AWN1" t="inlineStr">
         <is>
           <t>2014M05</t>
         </is>
       </c>
-      <c r="YI1" t="inlineStr">
+      <c r="AWO1" t="inlineStr">
         <is>
           <t>2014M06</t>
         </is>
       </c>
-      <c r="YJ1" t="inlineStr">
+      <c r="AWP1" t="inlineStr">
         <is>
           <t>2014M07</t>
         </is>
       </c>
-      <c r="YK1" t="inlineStr">
+      <c r="AWQ1" t="inlineStr">
         <is>
           <t>2014M08</t>
         </is>
       </c>
-      <c r="YL1" t="inlineStr">
+      <c r="AWR1" t="inlineStr">
         <is>
           <t>2014M09</t>
         </is>
       </c>
-      <c r="YM1" t="inlineStr">
-        <is>
-          <t>2014M10</t>
-        </is>
-      </c>
-      <c r="YN1" t="inlineStr">
-        <is>
-          <t>2014M11</t>
-        </is>
-      </c>
-      <c r="YO1" t="inlineStr">
-        <is>
-          <t>2014M12</t>
-        </is>
-      </c>
-      <c r="YP1" t="inlineStr">
+      <c r="AWS1" t="inlineStr">
         <is>
           <t>2015M01</t>
         </is>
       </c>
-      <c r="YQ1" t="inlineStr">
+      <c r="AWT1" t="inlineStr">
         <is>
           <t>2015M02</t>
         </is>
       </c>
-      <c r="YR1" t="inlineStr">
+      <c r="AWU1" t="inlineStr">
         <is>
           <t>2015M03</t>
         </is>
       </c>
-      <c r="YS1" t="inlineStr">
+      <c r="AWV1" t="inlineStr">
         <is>
           <t>2015M04</t>
         </is>
       </c>
-      <c r="YT1" t="inlineStr">
+      <c r="AWW1" t="inlineStr">
         <is>
           <t>2015M05</t>
         </is>
       </c>
-      <c r="YU1" t="inlineStr">
+      <c r="AWX1" t="inlineStr">
         <is>
           <t>2015M06</t>
         </is>
       </c>
-      <c r="YV1" t="inlineStr">
+      <c r="AWY1" t="inlineStr">
         <is>
           <t>2015M07</t>
         </is>
       </c>
-      <c r="YW1" t="inlineStr">
+      <c r="AWZ1" t="inlineStr">
         <is>
           <t>2015M08</t>
         </is>
       </c>
-      <c r="YX1" t="inlineStr">
+      <c r="AXA1" t="inlineStr">
         <is>
           <t>2015M09</t>
         </is>
       </c>
-      <c r="YY1" t="inlineStr">
-        <is>
-          <t>2015M10</t>
-        </is>
-      </c>
-      <c r="YZ1" t="inlineStr">
-        <is>
-          <t>2015M11</t>
-        </is>
-      </c>
-      <c r="ZA1" t="inlineStr">
-        <is>
-          <t>2015M12</t>
-        </is>
-      </c>
-      <c r="ZB1" t="inlineStr">
+      <c r="AXB1" t="inlineStr">
         <is>
           <t>2016M01</t>
         </is>
       </c>
-      <c r="ZC1" t="inlineStr">
+      <c r="AXC1" t="inlineStr">
         <is>
           <t>2016M02</t>
         </is>
       </c>
-      <c r="ZD1" t="inlineStr">
+      <c r="AXD1" t="inlineStr">
         <is>
           <t>2016M03</t>
         </is>
       </c>
-      <c r="ZE1" t="inlineStr">
+      <c r="AXE1" t="inlineStr">
         <is>
           <t>2016M04</t>
         </is>
       </c>
-      <c r="ZF1" t="inlineStr">
+      <c r="AXF1" t="inlineStr">
         <is>
           <t>2016M05</t>
         </is>
       </c>
-      <c r="ZG1" t="inlineStr">
+      <c r="AXG1" t="inlineStr">
         <is>
           <t>2016M06</t>
         </is>
       </c>
-      <c r="ZH1" t="inlineStr">
+      <c r="AXH1" t="inlineStr">
         <is>
           <t>2016M07</t>
         </is>
       </c>
-      <c r="ZI1" t="inlineStr">
+      <c r="AXI1" t="inlineStr">
         <is>
           <t>2016M08</t>
         </is>
       </c>
-      <c r="ZJ1" t="inlineStr">
+      <c r="AXJ1" t="inlineStr">
         <is>
           <t>2016M09</t>
         </is>
       </c>
-      <c r="ZK1" t="inlineStr">
-        <is>
-          <t>2016M10</t>
-        </is>
-      </c>
-      <c r="ZL1" t="inlineStr">
-        <is>
-          <t>2016M11</t>
-        </is>
-      </c>
-      <c r="ZM1" t="inlineStr">
-        <is>
-          <t>2016M12</t>
-        </is>
-      </c>
-      <c r="ZN1" t="inlineStr">
+      <c r="AXK1" t="inlineStr">
         <is>
           <t>2017M01</t>
         </is>
       </c>
-      <c r="ZO1" t="inlineStr">
+      <c r="AXL1" t="inlineStr">
         <is>
           <t>2017M02</t>
         </is>
       </c>
-      <c r="ZP1" t="inlineStr">
+      <c r="AXM1" t="inlineStr">
         <is>
           <t>2017M03</t>
         </is>
       </c>
-      <c r="ZQ1" t="inlineStr">
+      <c r="AXN1" t="inlineStr">
         <is>
           <t>2017M04</t>
         </is>
       </c>
-      <c r="ZR1" t="inlineStr">
+      <c r="AXO1" t="inlineStr">
         <is>
           <t>2017M05</t>
         </is>
       </c>
-      <c r="ZS1" t="inlineStr">
+      <c r="AXP1" t="inlineStr">
         <is>
           <t>2017M06</t>
         </is>
       </c>
-      <c r="ZT1" t="inlineStr">
+      <c r="AXQ1" t="inlineStr">
         <is>
           <t>2017M07</t>
         </is>
       </c>
-      <c r="ZU1" t="inlineStr">
+      <c r="AXR1" t="inlineStr">
         <is>
           <t>2017M08</t>
         </is>
       </c>
-      <c r="ZV1" t="inlineStr">
+      <c r="AXS1" t="inlineStr">
         <is>
           <t>2017M09</t>
         </is>
       </c>
-      <c r="ZW1" t="inlineStr">
-        <is>
-          <t>2017M10</t>
-        </is>
-      </c>
-      <c r="ZX1" t="inlineStr">
-        <is>
-          <t>2017M11</t>
-        </is>
-      </c>
-      <c r="ZY1" t="inlineStr">
-        <is>
-          <t>2017M12</t>
-        </is>
-      </c>
-      <c r="ZZ1" t="inlineStr">
+      <c r="AXT1" t="inlineStr">
         <is>
           <t>2018M01</t>
         </is>
       </c>
-      <c r="AAA1" t="inlineStr">
+      <c r="AXU1" t="inlineStr">
         <is>
           <t>2018M02</t>
         </is>
       </c>
-      <c r="AAB1" t="inlineStr">
+      <c r="AXV1" t="inlineStr">
         <is>
           <t>2018M03</t>
         </is>
       </c>
-      <c r="AAC1" t="inlineStr">
+      <c r="AXW1" t="inlineStr">
         <is>
           <t>2018M04</t>
         </is>
       </c>
-      <c r="AAD1" t="inlineStr">
+      <c r="AXX1" t="inlineStr">
         <is>
           <t>2018M05</t>
         </is>
       </c>
-      <c r="AAE1" t="inlineStr">
+      <c r="AXY1" t="inlineStr">
         <is>
           <t>2018M06</t>
         </is>
       </c>
-      <c r="AAF1" t="inlineStr">
+      <c r="AXZ1" t="inlineStr">
         <is>
           <t>2018M07</t>
         </is>
       </c>
-      <c r="AAG1" t="inlineStr">
+      <c r="AYA1" t="inlineStr">
         <is>
           <t>2018M08</t>
         </is>
       </c>
-      <c r="AAH1" t="inlineStr">
+      <c r="AYB1" t="inlineStr">
         <is>
           <t>2018M09</t>
         </is>
       </c>
-      <c r="AAI1" t="inlineStr">
-        <is>
-          <t>2018M10</t>
-        </is>
-      </c>
-      <c r="AAJ1" t="inlineStr">
-        <is>
-          <t>2018M11</t>
-        </is>
-      </c>
-      <c r="AAK1" t="inlineStr">
-        <is>
-          <t>2018M12</t>
-        </is>
-      </c>
-      <c r="AAL1" t="inlineStr">
+      <c r="AYC1" t="inlineStr">
         <is>
           <t>2019M01</t>
         </is>
       </c>
-      <c r="AAM1" t="inlineStr">
+      <c r="AYD1" t="inlineStr">
         <is>
           <t>2019M02</t>
         </is>
       </c>
-      <c r="AAN1" t="inlineStr">
+      <c r="AYE1" t="inlineStr">
         <is>
           <t>2019M03</t>
         </is>
       </c>
-      <c r="AAO1" t="inlineStr">
+      <c r="AYF1" t="inlineStr">
         <is>
           <t>2019M04</t>
         </is>
       </c>
-      <c r="AAP1" t="inlineStr">
+      <c r="AYG1" t="inlineStr">
         <is>
           <t>2019M05</t>
         </is>
       </c>
-      <c r="AAQ1" t="inlineStr">
+      <c r="AYH1" t="inlineStr">
         <is>
           <t>2019M06</t>
         </is>
       </c>
-      <c r="AAR1" t="inlineStr">
+      <c r="AYI1" t="inlineStr">
         <is>
           <t>2019M07</t>
         </is>
       </c>
-      <c r="AAS1" t="inlineStr">
+      <c r="AYJ1" t="inlineStr">
         <is>
           <t>2019M08</t>
         </is>
       </c>
-      <c r="AAT1" t="inlineStr">
+      <c r="AYK1" t="inlineStr">
         <is>
           <t>2019M09</t>
         </is>
       </c>
-      <c r="AAU1" t="inlineStr">
-        <is>
-          <t>2019M10</t>
-        </is>
-      </c>
-      <c r="AAV1" t="inlineStr">
-        <is>
-          <t>2019M11</t>
-        </is>
-      </c>
-      <c r="AAW1" t="inlineStr">
-        <is>
-          <t>2019M12</t>
-        </is>
-      </c>
-      <c r="AAX1" t="inlineStr">
+      <c r="AYL1" t="inlineStr">
         <is>
           <t>2020M01</t>
         </is>
       </c>
-      <c r="AAY1" t="inlineStr">
+      <c r="AYM1" t="inlineStr">
         <is>
           <t>2020M02</t>
         </is>
       </c>
-      <c r="AAZ1" t="inlineStr">
+      <c r="AYN1" t="inlineStr">
         <is>
           <t>2020M03</t>
         </is>
       </c>
-      <c r="ABA1" t="inlineStr">
+      <c r="AYO1" t="inlineStr">
         <is>
           <t>2020M04</t>
         </is>
       </c>
-      <c r="ABB1" t="inlineStr">
+      <c r="AYP1" t="inlineStr">
         <is>
           <t>2020M05</t>
         </is>
       </c>
-      <c r="ABC1" t="inlineStr">
+      <c r="AYQ1" t="inlineStr">
         <is>
           <t>2020M06</t>
         </is>
       </c>
-      <c r="ABD1" t="inlineStr">
+      <c r="AYR1" t="inlineStr">
         <is>
           <t>2020M07</t>
         </is>
       </c>
-      <c r="ABE1" t="inlineStr">
+      <c r="AYS1" t="inlineStr">
         <is>
           <t>2020M08</t>
         </is>
       </c>
-      <c r="ABF1" t="inlineStr">
+      <c r="AYT1" t="inlineStr">
         <is>
           <t>2020M09</t>
         </is>
       </c>
-      <c r="ABG1" t="inlineStr">
-        <is>
-          <t>2020M10</t>
-        </is>
-      </c>
-      <c r="ABH1" t="inlineStr">
-        <is>
-          <t>2020M11</t>
-        </is>
-      </c>
-      <c r="ABI1" t="inlineStr">
-        <is>
-          <t>2020M12</t>
-        </is>
-      </c>
-      <c r="ABJ1" t="inlineStr">
+      <c r="AYU1" t="inlineStr">
         <is>
           <t>2021M01</t>
         </is>
       </c>
-      <c r="ABK1" t="inlineStr">
+      <c r="AYV1" t="inlineStr">
         <is>
           <t>2021M02</t>
         </is>
       </c>
-      <c r="ABL1" t="inlineStr">
+      <c r="AYW1" t="inlineStr">
         <is>
           <t>2021M03</t>
         </is>
       </c>
-      <c r="ABM1" t="inlineStr">
+      <c r="AYX1" t="inlineStr">
         <is>
           <t>2021M04</t>
         </is>
       </c>
-      <c r="ABN1" t="inlineStr">
+      <c r="AYY1" t="inlineStr">
         <is>
           <t>2021M05</t>
         </is>
       </c>
-      <c r="ABO1" t="inlineStr">
+      <c r="AYZ1" t="inlineStr">
         <is>
           <t>2021M06</t>
         </is>
       </c>
-      <c r="ABP1" t="inlineStr">
+      <c r="AZA1" t="inlineStr">
         <is>
           <t>2021M07</t>
         </is>
       </c>
-      <c r="ABQ1" t="inlineStr">
+      <c r="AZB1" t="inlineStr">
         <is>
           <t>2021M08</t>
         </is>
       </c>
-      <c r="ABR1" t="inlineStr">
+      <c r="AZC1" t="inlineStr">
         <is>
           <t>2021M09</t>
         </is>
       </c>
-      <c r="ABS1" t="inlineStr">
-        <is>
-          <t>2021M10</t>
-        </is>
-      </c>
-      <c r="ABT1" t="inlineStr">
-        <is>
-          <t>2021M11</t>
-        </is>
-      </c>
-      <c r="ABU1" t="inlineStr">
-        <is>
-          <t>2021M12</t>
-        </is>
-      </c>
-      <c r="ABV1" t="inlineStr">
+      <c r="AZD1" t="inlineStr">
         <is>
           <t>2022M01</t>
         </is>
       </c>
-      <c r="ABW1" t="inlineStr">
+      <c r="AZE1" t="inlineStr">
         <is>
           <t>2022M02</t>
         </is>
       </c>
-      <c r="ABX1" t="inlineStr">
+      <c r="AZF1" t="inlineStr">
         <is>
           <t>2022M03</t>
         </is>
       </c>
-      <c r="ABY1" t="inlineStr">
+      <c r="AZG1" t="inlineStr">
         <is>
           <t>2022M04</t>
         </is>
       </c>
-      <c r="ABZ1" t="inlineStr">
+      <c r="AZH1" t="inlineStr">
         <is>
           <t>2022M05</t>
         </is>
       </c>
-      <c r="ACA1" t="inlineStr">
+      <c r="AZI1" t="inlineStr">
         <is>
           <t>2022M06</t>
         </is>
       </c>
-      <c r="ACB1" t="inlineStr">
+      <c r="AZJ1" t="inlineStr">
         <is>
           <t>2022M07</t>
         </is>
       </c>
-      <c r="ACC1" t="inlineStr">
+      <c r="AZK1" t="inlineStr">
         <is>
           <t>2022M08</t>
         </is>
       </c>
-      <c r="ACD1" t="inlineStr">
+      <c r="AZL1" t="inlineStr">
         <is>
           <t>2022M09</t>
         </is>
       </c>
-      <c r="ACE1" t="inlineStr">
-        <is>
-          <t>2022M10</t>
-        </is>
-      </c>
-      <c r="ACF1" t="inlineStr">
-        <is>
-          <t>2022M11</t>
-        </is>
-      </c>
-      <c r="ACG1" t="inlineStr">
-        <is>
-          <t>2022M12</t>
-        </is>
-      </c>
-      <c r="ACH1" t="inlineStr">
+      <c r="AZM1" t="inlineStr">
         <is>
           <t>2023M01</t>
         </is>
       </c>
-      <c r="ACI1" t="inlineStr">
+      <c r="AZN1" t="inlineStr">
         <is>
           <t>2023M02</t>
         </is>
       </c>
-      <c r="ACJ1" t="inlineStr">
+      <c r="AZO1" t="inlineStr">
         <is>
           <t>2023M03</t>
         </is>
       </c>
-      <c r="ACK1" t="inlineStr">
+      <c r="AZP1" t="inlineStr">
         <is>
           <t>2023M04</t>
         </is>
       </c>
-      <c r="ACL1" t="inlineStr">
+      <c r="AZQ1" t="inlineStr">
         <is>
           <t>2023M05</t>
         </is>
       </c>
-      <c r="ACM1" t="inlineStr">
+      <c r="AZR1" t="inlineStr">
         <is>
           <t>2023M06</t>
         </is>
       </c>
-      <c r="ACN1" t="inlineStr">
+      <c r="AZS1" t="inlineStr">
         <is>
           <t>2023M07</t>
         </is>
       </c>
-      <c r="ACO1" t="inlineStr">
+      <c r="AZT1" t="inlineStr">
         <is>
           <t>2023M08</t>
         </is>
       </c>
-      <c r="ACP1" t="inlineStr">
+      <c r="AZU1" t="inlineStr">
         <is>
           <t>2023M09</t>
         </is>
       </c>
-      <c r="ACQ1" t="inlineStr">
-        <is>
-          <t>2023M10</t>
-        </is>
-      </c>
-      <c r="ACR1" t="inlineStr">
-        <is>
-          <t>2023M11</t>
-        </is>
-      </c>
-      <c r="ACS1" t="inlineStr">
-        <is>
-          <t>2023M12</t>
-        </is>
-      </c>
-      <c r="ACT1" t="inlineStr">
+      <c r="AZV1" t="inlineStr">
         <is>
           <t>2024M01</t>
         </is>
       </c>
-      <c r="ACU1" t="inlineStr">
+      <c r="AZW1" t="inlineStr">
         <is>
           <t>2024M02</t>
         </is>
       </c>
-      <c r="ACV1" t="inlineStr">
+      <c r="AZX1" t="inlineStr">
         <is>
           <t>2024M03</t>
         </is>
       </c>
-      <c r="ACW1" t="inlineStr">
+      <c r="AZY1" t="inlineStr">
         <is>
           <t>2024M04</t>
         </is>
       </c>
-      <c r="ACX1" t="inlineStr">
+      <c r="AZZ1" t="inlineStr">
         <is>
           <t>2024M05</t>
         </is>
       </c>
-      <c r="ACY1" t="inlineStr">
+      <c r="BAA1" t="inlineStr">
         <is>
           <t>2024M06</t>
         </is>
       </c>
-      <c r="ACZ1" t="inlineStr">
+      <c r="BAB1" t="inlineStr">
         <is>
           <t>2024M07</t>
         </is>
       </c>
-      <c r="ADA1" t="inlineStr">
+      <c r="BAC1" t="inlineStr">
         <is>
           <t>2024M08</t>
         </is>
       </c>
-      <c r="ADB1" t="inlineStr">
+      <c r="BAD1" t="inlineStr">
         <is>
           <t>2024M09</t>
         </is>
       </c>
-      <c r="ADC1" t="inlineStr">
-        <is>
-          <t>2024M10</t>
-        </is>
-      </c>
-      <c r="ADD1" t="inlineStr">
-        <is>
-          <t>2024M11</t>
-        </is>
-      </c>
-      <c r="ADE1" t="inlineStr">
-        <is>
-          <t>2024M12</t>
-        </is>
-      </c>
-      <c r="ADF1" t="inlineStr">
+      <c r="BAE1" t="inlineStr">
         <is>
           <t>2025M01</t>
         </is>
       </c>
-      <c r="ADG1" t="inlineStr">
+      <c r="BAF1" t="inlineStr">
         <is>
           <t>2025M02</t>
         </is>
       </c>
-      <c r="ADH1" t="inlineStr">
+      <c r="BAG1" t="inlineStr">
         <is>
           <t>2025M03</t>
         </is>
       </c>
-      <c r="ADI1" t="inlineStr">
+      <c r="BAH1" t="inlineStr">
         <is>
           <t>2025M04</t>
         </is>
       </c>
-      <c r="ADJ1" t="inlineStr">
+      <c r="BAI1" t="inlineStr">
         <is>
           <t>2025M05</t>
         </is>
       </c>
-      <c r="ADK1" t="inlineStr">
+      <c r="BAJ1" t="inlineStr">
         <is>
           <t>2025M06</t>
         </is>
       </c>
-      <c r="ADL1" t="inlineStr">
+      <c r="BAK1" t="inlineStr">
         <is>
           <t>2025M07</t>
         </is>
       </c>
-      <c r="ADM1" t="inlineStr">
+      <c r="BAL1" t="inlineStr">
         <is>
           <t>2025M08</t>
         </is>
       </c>
-      <c r="ADN1" t="inlineStr">
+      <c r="BAM1" t="inlineStr">
         <is>
           <t>2025M09</t>
         </is>
       </c>
-      <c r="ADO1" t="inlineStr">
-        <is>
-          <t>2025M10</t>
-        </is>
-      </c>
-      <c r="ADP1" t="inlineStr">
-        <is>
-          <t>2025M11</t>
-        </is>
-      </c>
-      <c r="ADQ1" t="inlineStr">
-        <is>
-          <t>2025M12</t>
-        </is>
-      </c>
-      <c r="ADR1" t="inlineStr">
+      <c r="BAN1" t="inlineStr">
         <is>
           <t>2026M01</t>
         </is>
@@ -4356,7 +7326,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>XDC_USD</t>
+          <t>ENDA_XDC_USD_RATE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -5323,7 +8293,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>XDC_USD</t>
+          <t>ENDA_XDC_USD_RATE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -9310,7 +12280,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>XDC_USD</t>
+          <t>ENDA_XDC_USD_RATE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -12792,7 +15762,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>XDC_USD</t>
+          <t>ENDA_XDC_USD_RATE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -12819,7 +15789,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>XDC_USD</t>
+          <t>ENDA_XDC_USD_RATE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -12846,7 +15816,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MFS_166_RT_PT_A_PT</t>
+          <t>FPOLM_PA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -12873,7 +15843,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MFS_166_RT_PT_A_PT</t>
+          <t>FPOLM_PA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -12900,7 +15870,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MFS_166_RT_PT_A_PT</t>
+          <t>FPOLM_PA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -12927,7 +15897,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MFS_166_RT_PT_A_PT</t>
+          <t>FPOLM_PA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -12954,7 +15924,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MFS_166_RT_PT_A_PT</t>
+          <t>FPOLM_PA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
